--- a/all_student_data.xlsx
+++ b/all_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\Documents\0_coding\20-21 results analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D001D06-B497-4176-8E1E-3C0C8FD003E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC6795E-79EB-4D42-8C99-61F162D6A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49026F05-F964-4820-BC77-407A59B9FFBE}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <author>tc={1EF3FF90-778B-4561-B8D3-8031DEA67788}</author>
   </authors>
   <commentList>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     significantly under word count</t>
       </text>
     </comment>
-    <comment ref="K15" authorId="1" shapeId="0" xr:uid="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
+    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     10% penalty for no first draft</t>
       </text>
     </comment>
-    <comment ref="K16" authorId="2" shapeId="0" xr:uid="{84FBE623-0364-4D53-9214-61300D252665}">
+    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{84FBE623-0364-4D53-9214-61300D252665}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     no submission</t>
       </text>
     </comment>
-    <comment ref="I18" authorId="3" shapeId="0" xr:uid="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
+    <comment ref="J18" authorId="3" shapeId="0" xr:uid="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
     submitted over 24 hours after deadline</t>
       </text>
     </comment>
-    <comment ref="K21" authorId="4" shapeId="0" xr:uid="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
+    <comment ref="L21" authorId="4" shapeId="0" xr:uid="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +95,7 @@
     10% penalty for no first draft</t>
       </text>
     </comment>
-    <comment ref="K22" authorId="5" shapeId="0" xr:uid="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
+    <comment ref="L22" authorId="5" shapeId="0" xr:uid="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="205">
   <si>
     <t>Student ID</t>
   </si>
@@ -675,6 +675,54 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>SFAS</t>
+  </si>
+  <si>
+    <t>SFMEA</t>
+  </si>
+  <si>
+    <t>SFSCA</t>
+  </si>
+  <si>
+    <t>SFSCB</t>
+  </si>
+  <si>
+    <t>reg_group</t>
+  </si>
+  <si>
+    <t>SIYBM</t>
+  </si>
+  <si>
+    <t>SIYCS</t>
+  </si>
+  <si>
+    <t>JFAS</t>
+  </si>
+  <si>
+    <t>JFMEA</t>
+  </si>
+  <si>
+    <t>JFSCA</t>
+  </si>
+  <si>
+    <t>JIYCS</t>
+  </si>
+  <si>
+    <t>JIYBM</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>PMPBM1</t>
   </si>
 </sst>
 </file>
@@ -697,10 +745,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -720,8 +766,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -737,10 +784,43 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{48085687-6A69-4C36-A01F-A01DF4644548}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <protection locked="0" hidden="0"/>
@@ -783,30 +863,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -827,20 +883,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{610BA0F4-6B92-46A8-A35C-286D24200840}" name="all_data" displayName="all_data" ref="A1:K173" totalsRowShown="0">
-  <autoFilter ref="A1:K173" xr:uid="{0DDD6615-E61E-4F46-BA5B-AD720B0E3720}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1672A6F0-4449-4956-88B8-CF9365C26E58}" name="Student ID" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{A4DC134E-DDB8-4B25-8ABB-C90A2348B0E6}" name="Full Name" dataDxfId="9"/>
-    <tableColumn id="34" xr3:uid="{2CE466DA-00CC-4163-B93A-309A04B84A05}" name="programme" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{1F3BD03E-D116-4CCD-A05F-534C7D9D3D41}" name="cohort" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{084D6074-E1C6-4D9A-9A6A-A62D86FB12D0}" name="EX1 Listening" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{47B67A35-1051-40EF-B0B3-47D504058981}" name="EX3 Reading" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{192D969F-7102-49B5-8951-6366C6AC26A1}" name="EX3 Writing" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{CAA54B9B-6675-4B34-890E-3516B1C22A81}" name="EX2 Speaking" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{ED7073C4-F484-4FCD-BF17-1A23043A6B1F}" name="CW1" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{C225E16D-B279-4773-A4BC-A6F46E614215}" name="CW2" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{1EFCDFE9-EF74-46B7-888A-31C7DB1632F6}" name="CW3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{610BA0F4-6B92-46A8-A35C-286D24200840}" name="all_data" displayName="all_data" ref="A1:M173" totalsRowShown="0">
+  <autoFilter ref="A1:M173" xr:uid="{0DDD6615-E61E-4F46-BA5B-AD720B0E3720}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{1672A6F0-4449-4956-88B8-CF9365C26E58}" name="Student ID" dataDxfId="14"/>
+    <tableColumn id="28" xr3:uid="{A4DC134E-DDB8-4B25-8ABB-C90A2348B0E6}" name="Full Name" dataDxfId="13"/>
+    <tableColumn id="34" xr3:uid="{2CE466DA-00CC-4163-B93A-309A04B84A05}" name="programme" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{1F3BD03E-D116-4CCD-A05F-534C7D9D3D41}" name="cohort" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{87537886-42AA-4AC0-830C-D3130592DB19}" name="reg_group" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{084D6074-E1C6-4D9A-9A6A-A62D86FB12D0}" name="EX1 Listening" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{47B67A35-1051-40EF-B0B3-47D504058981}" name="EX3 Reading" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{192D969F-7102-49B5-8951-6366C6AC26A1}" name="EX3 Writing" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{CAA54B9B-6675-4B34-890E-3516B1C22A81}" name="EX2 Speaking" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{ED7073C4-F484-4FCD-BF17-1A23043A6B1F}" name="CW1" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C225E16D-B279-4773-A4BC-A6F46E614215}" name="CW2" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{1EFCDFE9-EF74-46B7-888A-31C7DB1632F6}" name="CW3" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CD71F434-B884-436B-9994-1F08879D6E54}" name="status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,22 +1201,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K10" dT="2021-08-17T08:52:00.56" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
+  <threadedComment ref="L10" dT="2021-08-17T08:52:00.56" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
     <text>significantly under word count</text>
   </threadedComment>
-  <threadedComment ref="K15" dT="2021-08-17T10:01:47.94" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
+  <threadedComment ref="L15" dT="2021-08-17T10:01:47.94" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
     <text>10% penalty for no first draft</text>
   </threadedComment>
-  <threadedComment ref="K16" dT="2021-08-17T08:52:13.76" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{84FBE623-0364-4D53-9214-61300D252665}">
+  <threadedComment ref="L16" dT="2021-08-17T08:52:13.76" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{84FBE623-0364-4D53-9214-61300D252665}">
     <text>no submission</text>
   </threadedComment>
-  <threadedComment ref="I18" dT="2021-07-16T13:11:43.07" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
+  <threadedComment ref="J18" dT="2021-07-16T13:11:43.07" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
     <text>submitted over 24 hours after deadline</text>
   </threadedComment>
-  <threadedComment ref="K21" dT="2021-08-17T10:02:13.19" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
+  <threadedComment ref="L21" dT="2021-08-17T10:02:13.19" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
     <text>10% penalty for no first draft</text>
   </threadedComment>
-  <threadedComment ref="K22" dT="2021-08-17T10:02:23.17" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
+  <threadedComment ref="L22" dT="2021-08-17T10:02:23.17" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
     <text>10% penalty for no first draft</text>
   </threadedComment>
 </ThreadedComments>
@@ -1166,28 +1224,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8382BAF0-9ECD-437E-8B2E-B75C7E4CBE5A}">
-  <dimension ref="A1:K173"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H181" sqref="H181"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,28 +1259,34 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2594410</v>
       </c>
@@ -1235,29 +1299,35 @@
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="2">
         <v>60</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>73</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>85</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>61</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>65</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>64</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2599517</v>
       </c>
@@ -1270,29 +1340,35 @@
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="2">
         <v>90</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>68</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>60</v>
       </c>
-      <c r="H3">
-        <v>69</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I3">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2">
         <v>37</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>61</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2344128</v>
       </c>
@@ -1305,29 +1381,35 @@
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="2">
         <v>75</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>73</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>62</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>55</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>42</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>55</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2626268</v>
       </c>
@@ -1340,29 +1422,35 @@
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="2">
         <v>95</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>80</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>62</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>64</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>84</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>68</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2601927</v>
       </c>
@@ -1375,29 +1463,35 @@
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="2">
         <v>73</v>
       </c>
-      <c r="F6" s="2">
-        <v>70</v>
-      </c>
       <c r="G6" s="2">
+        <v>70</v>
+      </c>
+      <c r="H6" s="2">
         <v>54</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>63</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>64</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>60</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2624906</v>
       </c>
@@ -1410,29 +1504,35 @@
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="2">
         <v>80</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>88</v>
       </c>
-      <c r="G7" s="2">
-        <v>69</v>
-      </c>
-      <c r="H7">
-        <v>70</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2">
         <v>55</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>63</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2553961</v>
       </c>
@@ -1445,29 +1545,35 @@
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2">
-        <v>63</v>
+      <c r="E8" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="F8" s="2">
         <v>63</v>
       </c>
       <c r="G8" s="2">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2">
         <v>52</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>58</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>62</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>60</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2584455</v>
       </c>
@@ -1480,29 +1586,35 @@
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="2">
         <v>65</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>83</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>63</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>68</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>63</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>61</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2625034</v>
       </c>
@@ -1515,29 +1627,35 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2">
         <v>63</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>55</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>46</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>50</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>53</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>55</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2582293</v>
       </c>
@@ -1550,29 +1668,35 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="2">
         <v>80</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>65</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>85</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>55</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>65</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>58</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2485579</v>
       </c>
@@ -1585,29 +1709,35 @@
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="2">
         <v>73</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>68</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>50</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>58</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>59</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>45</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2426234</v>
       </c>
@@ -1620,29 +1750,35 @@
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="2">
         <v>83</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>63</v>
       </c>
-      <c r="G13" s="2">
-        <v>70</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="2">
+        <v>70</v>
+      </c>
+      <c r="I13">
         <v>50</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>50</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2592457</v>
       </c>
@@ -1655,29 +1791,35 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2">
-        <v>70</v>
+      <c r="E14" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="F14" s="2">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2">
         <v>53</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>50</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>58</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>78</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>53</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2608909</v>
       </c>
@@ -1690,29 +1832,35 @@
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="2">
         <v>78</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>58</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>61</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>63</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>30</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>51</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2602045</v>
       </c>
@@ -1725,29 +1873,35 @@
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="2">
         <v>65</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>58</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>56</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>66</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>3</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>48</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2518173</v>
       </c>
@@ -1760,29 +1914,35 @@
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>38</v>
       </c>
-      <c r="G17" s="2">
-        <v>34</v>
-      </c>
-      <c r="H17">
+      <c r="H17" s="2">
+        <v>34</v>
+      </c>
+      <c r="I17">
         <v>64</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>85</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>64</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2609158</v>
       </c>
@@ -1795,29 +1955,35 @@
       <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="2">
         <v>75</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>63</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>66</v>
       </c>
-      <c r="H18">
-        <v>70</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="I18">
+        <v>70</v>
+      </c>
+      <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>74</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2517600</v>
       </c>
@@ -1830,29 +1996,35 @@
       <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="2">
         <v>68</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>60</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>50</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>68</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>63</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>74</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2524474</v>
       </c>
@@ -1865,29 +2037,35 @@
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="2">
         <v>63</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>68</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>63</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>66</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>73</v>
       </c>
-      <c r="J20" s="2">
-        <v>70</v>
-      </c>
       <c r="K20" s="2">
+        <v>70</v>
+      </c>
+      <c r="L20" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2534306</v>
       </c>
@@ -1900,29 +2078,35 @@
       <c r="D21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="2">
         <v>35</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>38</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>43</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>60</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2594329</v>
       </c>
@@ -1935,29 +2119,35 @@
       <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="2">
         <v>90</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>68</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>79</v>
       </c>
-      <c r="H22">
-        <v>70</v>
-      </c>
-      <c r="I22" s="2">
-        <v>69</v>
+      <c r="I22">
+        <v>70</v>
       </c>
       <c r="J22" s="2">
+        <v>69</v>
+      </c>
+      <c r="K22" s="2">
         <v>78</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2565927</v>
       </c>
@@ -1970,29 +2160,35 @@
       <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="2">
         <v>88</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>45</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>54</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>74</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>54</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>67</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2618023</v>
       </c>
@@ -2005,29 +2201,35 @@
       <c r="D24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="2">
         <v>75</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>43</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>56</v>
       </c>
-      <c r="H24" s="2">
-        <v>70</v>
-      </c>
       <c r="I24" s="2">
+        <v>70</v>
+      </c>
+      <c r="J24" s="2">
         <v>48</v>
       </c>
-      <c r="J24" s="2">
-        <v>69</v>
-      </c>
       <c r="K24" s="2">
+        <v>69</v>
+      </c>
+      <c r="L24" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2612517</v>
       </c>
@@ -2040,29 +2242,35 @@
       <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="2">
         <v>20</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>28</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>30</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>61</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>44</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>47</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2613537</v>
       </c>
@@ -2075,29 +2283,35 @@
       <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="2">
         <v>63</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>50</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>44</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>65</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>37</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>65</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2533319</v>
       </c>
@@ -2110,29 +2324,35 @@
       <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="2">
-        <v>70</v>
+      <c r="E27" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F27" s="2">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2">
         <v>53</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>40</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>60</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>29</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>54</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2616856</v>
       </c>
@@ -2145,29 +2365,35 @@
       <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="2">
         <v>68</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>35</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>58</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>68</v>
-      </c>
-      <c r="I28" s="2">
-        <v>65</v>
       </c>
       <c r="J28" s="2">
         <v>65</v>
       </c>
       <c r="K28" s="2">
+        <v>65</v>
+      </c>
+      <c r="L28" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2597383</v>
       </c>
@@ -2180,29 +2406,35 @@
       <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="2">
         <v>73</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>38</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>54</v>
       </c>
-      <c r="H29">
-        <v>69</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="I29">
+        <v>69</v>
+      </c>
+      <c r="J29" s="2">
         <v>27</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>60</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2618059</v>
       </c>
@@ -2215,29 +2447,35 @@
       <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="2">
         <v>83</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>43</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>52</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>93</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>29</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2602413</v>
       </c>
@@ -2250,29 +2488,35 @@
       <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="2">
         <v>90</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>88</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>73</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>100</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>68</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>95</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2541752</v>
       </c>
@@ -2285,29 +2529,35 @@
       <c r="D32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="2">
         <v>80</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>73</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>62</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>63</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <v>80</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>65</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2525000</v>
       </c>
@@ -2320,29 +2570,35 @@
       <c r="D33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="2">
         <v>68</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>65</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>48</v>
       </c>
-      <c r="H33">
-        <v>70</v>
-      </c>
-      <c r="I33" s="2">
+      <c r="I33">
+        <v>70</v>
+      </c>
+      <c r="J33" s="2">
         <v>62</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>51</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2599342</v>
       </c>
@@ -2355,29 +2611,35 @@
       <c r="D34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="2">
         <v>80</v>
       </c>
-      <c r="F34" s="2">
-        <v>70</v>
-      </c>
       <c r="G34" s="2">
+        <v>70</v>
+      </c>
+      <c r="H34" s="2">
         <v>65</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>85</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>68</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>59</v>
       </c>
-      <c r="K34" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
+        <v>70</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2612461</v>
       </c>
@@ -2390,29 +2652,35 @@
       <c r="D35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="2">
         <v>78</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>75</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>61</v>
       </c>
-      <c r="H35">
-        <v>70</v>
-      </c>
-      <c r="I35" s="2">
+      <c r="I35">
+        <v>70</v>
+      </c>
+      <c r="J35" s="2">
         <v>29</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2619654</v>
       </c>
@@ -2425,29 +2693,35 @@
       <c r="D36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="2">
         <v>80</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>60</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>50</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>78</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <v>89</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>53</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2598728</v>
       </c>
@@ -2460,29 +2734,35 @@
       <c r="D37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="2">
         <v>90</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>78</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>82</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>85</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <v>83</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>81</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2560089</v>
       </c>
@@ -2495,29 +2775,35 @@
       <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="2">
         <v>50</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>53</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>67</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>63</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>47</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>54</v>
       </c>
-      <c r="K38" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <v>70</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2592160</v>
       </c>
@@ -2530,29 +2816,35 @@
       <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="2">
         <v>55</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>43</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>52</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>61</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>39</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>53</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2584600</v>
       </c>
@@ -2565,29 +2857,35 @@
       <c r="D40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="2">
         <v>63</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>58</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>64</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>89</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>35</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>74</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2584502</v>
       </c>
@@ -2600,29 +2898,35 @@
       <c r="D41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="2">
         <v>58</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>73</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>65</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>63</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>64</v>
-      </c>
-      <c r="J41" s="2">
-        <v>63</v>
       </c>
       <c r="K41" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <v>63</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2599950</v>
       </c>
@@ -2635,29 +2939,35 @@
       <c r="D42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="2">
         <v>78</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>80</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>67</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>68</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <v>58</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>66</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2570588</v>
       </c>
@@ -2670,29 +2980,35 @@
       <c r="D43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="2">
         <v>93</v>
       </c>
-      <c r="F43" s="2">
-        <v>70</v>
-      </c>
       <c r="G43" s="2">
-        <v>69</v>
-      </c>
-      <c r="H43">
-        <v>70</v>
-      </c>
-      <c r="I43" s="2">
+        <v>70</v>
+      </c>
+      <c r="H43" s="2">
+        <v>69</v>
+      </c>
+      <c r="I43">
+        <v>70</v>
+      </c>
+      <c r="J43" s="2">
         <v>82</v>
       </c>
-      <c r="J43" s="2">
-        <v>69</v>
-      </c>
       <c r="K43" s="2">
+        <v>69</v>
+      </c>
+      <c r="L43" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2595595</v>
       </c>
@@ -2705,29 +3021,35 @@
       <c r="D44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="2">
         <v>65</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <v>75</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>60</v>
       </c>
-      <c r="H44">
-        <v>70</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="I44">
+        <v>70</v>
+      </c>
+      <c r="J44" s="2">
         <v>43</v>
-      </c>
-      <c r="J44" s="2">
-        <v>58</v>
       </c>
       <c r="K44" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
+        <v>58</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2598461</v>
       </c>
@@ -2740,29 +3062,35 @@
       <c r="D45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="2">
         <v>80</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>88</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>79</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>78</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <v>37</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>83</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2596991</v>
       </c>
@@ -2775,29 +3103,35 @@
       <c r="D46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" s="2">
         <v>60</v>
       </c>
-      <c r="F46" s="2">
+      <c r="G46" s="2">
         <v>83</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>79</v>
       </c>
-      <c r="H46">
-        <v>69</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="I46">
+        <v>69</v>
+      </c>
+      <c r="J46" s="2">
         <v>73</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>74</v>
       </c>
-      <c r="K46" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
+        <v>70</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2606146</v>
       </c>
@@ -2810,29 +3144,35 @@
       <c r="D47" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="2">
-        <v>73</v>
+      <c r="E47" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="F47" s="2">
         <v>73</v>
       </c>
       <c r="G47" s="2">
-        <v>70</v>
-      </c>
-      <c r="H47">
+        <v>73</v>
+      </c>
+      <c r="H47" s="2">
+        <v>70</v>
+      </c>
+      <c r="I47">
         <v>72</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="2">
         <v>58</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>55</v>
       </c>
-      <c r="K47" s="2">
+      <c r="L47" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2606430</v>
       </c>
@@ -2845,29 +3185,35 @@
       <c r="D48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="2">
         <v>63</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>55</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>58</v>
       </c>
-      <c r="H48">
-        <v>70</v>
-      </c>
-      <c r="I48" s="2">
+      <c r="I48">
+        <v>70</v>
+      </c>
+      <c r="J48" s="2">
         <v>43</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>61</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M48" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2604240</v>
       </c>
@@ -2880,29 +3226,35 @@
       <c r="D49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="2">
         <v>88</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>85</v>
       </c>
-      <c r="G49" s="2">
-        <v>70</v>
-      </c>
-      <c r="H49">
+      <c r="H49" s="2">
+        <v>70</v>
+      </c>
+      <c r="I49">
         <v>72</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="2">
         <v>72</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>81</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2625132</v>
       </c>
@@ -2915,29 +3267,35 @@
       <c r="D50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="2">
         <v>83</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>88</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>92</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>76</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J50" s="2">
         <v>62</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>78</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2602055</v>
       </c>
@@ -2950,29 +3308,35 @@
       <c r="D51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="2">
         <v>73</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>68</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>61</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>66</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J51" s="2">
         <v>54</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>67</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2611819</v>
       </c>
@@ -2985,29 +3349,35 @@
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F52" s="2">
         <v>75</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G52" s="2">
         <v>85</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>79</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>93</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J52" s="2">
         <v>53</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>81</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2613037</v>
       </c>
@@ -3020,29 +3390,35 @@
       <c r="D53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="2">
         <v>88</v>
       </c>
-      <c r="F53" s="2">
+      <c r="G53" s="2">
         <v>85</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>73</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>96</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <v>85</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>81</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2606944</v>
       </c>
@@ -3055,20 +3431,20 @@
       <c r="D54" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F54" s="2">
         <v>78</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G54" s="2">
         <v>75</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>65</v>
       </c>
-      <c r="H54">
-        <v>69</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
+      <c r="I54">
+        <v>69</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -3076,8 +3452,14 @@
       <c r="K54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2595599</v>
       </c>
@@ -3090,29 +3472,35 @@
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F55" s="2">
         <v>93</v>
       </c>
-      <c r="F55" s="2">
+      <c r="G55" s="2">
         <v>75</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>73</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>76</v>
       </c>
-      <c r="I55" s="2">
+      <c r="J55" s="2">
         <v>62</v>
       </c>
-      <c r="J55" s="2">
-        <v>70</v>
-      </c>
       <c r="K55" s="2">
+        <v>70</v>
+      </c>
+      <c r="L55" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2601562</v>
       </c>
@@ -3125,29 +3513,35 @@
       <c r="D56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" s="2">
         <v>95</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G56" s="2">
         <v>90</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>59</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>85</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J56" s="2">
         <v>63</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>76</v>
       </c>
-      <c r="K56" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="2">
+        <v>70</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2613359</v>
       </c>
@@ -3160,29 +3554,35 @@
       <c r="D57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="2">
         <v>65</v>
       </c>
-      <c r="F57" s="2">
-        <v>70</v>
-      </c>
       <c r="G57" s="2">
+        <v>70</v>
+      </c>
+      <c r="H57" s="2">
         <v>68</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>68</v>
       </c>
-      <c r="I57" s="2">
+      <c r="J57" s="2">
         <v>68</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>74</v>
       </c>
-      <c r="K57" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="2">
+        <v>69</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2457281</v>
       </c>
@@ -3195,29 +3595,35 @@
       <c r="D58" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="5">
         <v>68</v>
       </c>
-      <c r="F58" s="5">
-        <v>70</v>
-      </c>
       <c r="G58" s="5">
+        <v>70</v>
+      </c>
+      <c r="H58" s="5">
         <v>40</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>63</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>93</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>40</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2553008</v>
       </c>
@@ -3230,29 +3636,35 @@
       <c r="D59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="5">
         <v>68</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>55</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>52</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>64</v>
       </c>
-      <c r="I59" s="5">
+      <c r="J59" s="5">
         <v>95</v>
       </c>
-      <c r="J59" s="5">
+      <c r="K59" s="5">
         <v>74</v>
       </c>
-      <c r="K59" s="5">
+      <c r="L59" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M59" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2561843</v>
       </c>
@@ -3265,29 +3677,35 @@
       <c r="D60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="5">
         <v>88</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>78</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>72</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>64</v>
       </c>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <v>58</v>
       </c>
-      <c r="J60" s="5">
+      <c r="K60" s="5">
         <v>60</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2580188</v>
       </c>
@@ -3300,29 +3718,35 @@
       <c r="D61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="5">
         <v>43</v>
       </c>
-      <c r="F61" s="5">
+      <c r="G61" s="5">
         <v>45</v>
       </c>
-      <c r="G61" s="5">
-        <v>34</v>
-      </c>
       <c r="H61" s="5">
+        <v>34</v>
+      </c>
+      <c r="I61" s="5">
         <v>60</v>
       </c>
-      <c r="I61" s="5">
+      <c r="J61" s="5">
         <v>13</v>
       </c>
-      <c r="J61" s="5">
+      <c r="K61" s="5">
         <v>62</v>
       </c>
-      <c r="K61" s="5">
+      <c r="L61" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2476383</v>
       </c>
@@ -3335,29 +3759,35 @@
       <c r="D62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F62" s="5">
         <v>73</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>50</v>
       </c>
-      <c r="G62" s="5">
+      <c r="H62" s="5">
         <v>38</v>
       </c>
-      <c r="H62" s="5">
+      <c r="I62" s="5">
         <v>68</v>
       </c>
-      <c r="I62" s="5">
+      <c r="J62" s="5">
         <v>78</v>
       </c>
-      <c r="J62" s="5">
+      <c r="K62" s="5">
         <v>45</v>
       </c>
-      <c r="K62" s="5">
+      <c r="L62" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M62" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2531458</v>
       </c>
@@ -3370,29 +3800,35 @@
       <c r="D63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="5">
         <v>73</v>
       </c>
-      <c r="F63" s="5">
+      <c r="G63" s="5">
         <v>50</v>
       </c>
-      <c r="G63" s="5">
+      <c r="H63" s="5">
         <v>52</v>
       </c>
-      <c r="H63" s="5">
+      <c r="I63" s="5">
         <v>60</v>
       </c>
-      <c r="I63" s="5">
+      <c r="J63" s="5">
         <v>68</v>
       </c>
-      <c r="J63" s="5">
+      <c r="K63" s="5">
         <v>50</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2550507</v>
       </c>
@@ -3405,29 +3841,35 @@
       <c r="D64" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="5">
         <v>88</v>
       </c>
-      <c r="F64" s="5">
-        <v>70</v>
-      </c>
       <c r="G64" s="5">
+        <v>70</v>
+      </c>
+      <c r="H64" s="5">
         <v>79</v>
       </c>
-      <c r="H64" s="5">
+      <c r="I64" s="5">
         <v>81</v>
       </c>
-      <c r="I64" s="5">
+      <c r="J64" s="5">
         <v>78</v>
       </c>
-      <c r="J64" s="5">
+      <c r="K64" s="5">
         <v>91</v>
       </c>
-      <c r="K64" s="5">
+      <c r="L64" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2559075</v>
       </c>
@@ -3440,29 +3882,35 @@
       <c r="D65" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="5">
         <v>48</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>80</v>
       </c>
-      <c r="G65" s="5">
+      <c r="H65" s="5">
         <v>82</v>
       </c>
-      <c r="H65" s="5">
+      <c r="I65" s="5">
         <v>60</v>
       </c>
-      <c r="I65" s="5">
+      <c r="J65" s="5">
         <v>50</v>
       </c>
-      <c r="J65" s="5">
+      <c r="K65" s="5">
         <v>55</v>
       </c>
-      <c r="K65" s="5">
+      <c r="L65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2580427</v>
       </c>
@@ -3475,29 +3923,35 @@
       <c r="D66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" s="5">
         <v>65</v>
       </c>
-      <c r="F66" s="5">
+      <c r="G66" s="5">
         <v>53</v>
       </c>
-      <c r="G66" s="5">
+      <c r="H66" s="5">
         <v>56</v>
       </c>
-      <c r="H66" s="5">
+      <c r="I66" s="5">
         <v>68</v>
       </c>
-      <c r="I66" s="5">
+      <c r="J66" s="5">
         <v>53</v>
       </c>
-      <c r="J66" s="5">
+      <c r="K66" s="5">
         <v>60</v>
       </c>
-      <c r="K66" s="5">
+      <c r="L66" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2580523</v>
       </c>
@@ -3510,29 +3964,35 @@
       <c r="D67" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" s="5">
         <v>80</v>
       </c>
-      <c r="F67" s="5">
+      <c r="G67" s="5">
         <v>65</v>
       </c>
-      <c r="G67" s="5">
+      <c r="H67" s="5">
         <v>42</v>
       </c>
-      <c r="H67" s="5">
-        <v>69</v>
-      </c>
       <c r="I67" s="5">
+        <v>69</v>
+      </c>
+      <c r="J67" s="5">
         <v>49</v>
       </c>
-      <c r="J67" s="5">
+      <c r="K67" s="5">
         <v>74</v>
       </c>
-      <c r="K67" s="5">
+      <c r="L67" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2580554</v>
       </c>
@@ -3545,29 +4005,35 @@
       <c r="D68" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="5">
         <v>95</v>
       </c>
-      <c r="F68" s="5">
+      <c r="G68" s="5">
         <v>83</v>
       </c>
-      <c r="G68" s="5">
+      <c r="H68" s="5">
         <v>73</v>
       </c>
-      <c r="H68" s="5">
+      <c r="I68" s="5">
         <v>50</v>
       </c>
-      <c r="I68" s="5">
+      <c r="J68" s="5">
         <v>72</v>
       </c>
-      <c r="J68" s="5">
+      <c r="K68" s="5">
         <v>66</v>
       </c>
-      <c r="K68" s="5">
+      <c r="L68" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2585009</v>
       </c>
@@ -3580,29 +4046,35 @@
       <c r="D69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E69" s="5">
-        <v>70</v>
+      <c r="E69" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F69" s="5">
+        <v>70</v>
+      </c>
+      <c r="G69" s="5">
         <v>48</v>
       </c>
-      <c r="G69" s="5">
+      <c r="H69" s="5">
         <v>44</v>
       </c>
-      <c r="H69" s="5">
-        <v>70</v>
-      </c>
       <c r="I69" s="5">
+        <v>70</v>
+      </c>
+      <c r="J69" s="5">
         <v>58</v>
       </c>
-      <c r="J69" s="5">
+      <c r="K69" s="5">
         <v>78</v>
       </c>
-      <c r="K69" s="5">
+      <c r="L69" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2585955</v>
       </c>
@@ -3615,29 +4087,35 @@
       <c r="D70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="5">
         <v>78</v>
       </c>
-      <c r="F70" s="5">
+      <c r="G70" s="5">
         <v>48</v>
       </c>
-      <c r="G70" s="5">
+      <c r="H70" s="5">
         <v>42</v>
       </c>
-      <c r="H70" s="5">
+      <c r="I70" s="5">
         <v>61</v>
-      </c>
-      <c r="I70" s="5">
-        <v>53</v>
       </c>
       <c r="J70" s="5">
         <v>53</v>
       </c>
       <c r="K70" s="5">
+        <v>53</v>
+      </c>
+      <c r="L70" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2598780</v>
       </c>
@@ -3650,29 +4128,35 @@
       <c r="D71" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="5">
         <v>75</v>
       </c>
-      <c r="F71" s="5">
+      <c r="G71" s="5">
         <v>68</v>
       </c>
-      <c r="G71" s="5">
+      <c r="H71" s="5">
         <v>58</v>
       </c>
-      <c r="H71" s="5">
+      <c r="I71" s="5">
         <v>74</v>
       </c>
-      <c r="I71" s="5">
-        <v>69</v>
-      </c>
       <c r="J71" s="5">
         <v>69</v>
       </c>
       <c r="K71" s="5">
+        <v>69</v>
+      </c>
+      <c r="L71" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2602208</v>
       </c>
@@ -3685,29 +4169,35 @@
       <c r="D72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" s="5">
         <v>85</v>
       </c>
-      <c r="F72" s="5">
+      <c r="G72" s="5">
         <v>80</v>
       </c>
-      <c r="G72" s="5">
+      <c r="H72" s="5">
         <v>65</v>
       </c>
-      <c r="H72" s="5">
-        <v>69</v>
-      </c>
       <c r="I72" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J72" s="5">
+        <v>70</v>
+      </c>
+      <c r="K72" s="5">
         <v>58</v>
       </c>
-      <c r="K72" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="5">
+        <v>70</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2602417</v>
       </c>
@@ -3720,29 +4210,35 @@
       <c r="D73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" s="5">
         <v>88</v>
       </c>
-      <c r="F73" s="5">
+      <c r="G73" s="5">
         <v>68</v>
       </c>
-      <c r="G73" s="5">
+      <c r="H73" s="5">
         <v>73</v>
       </c>
-      <c r="H73" s="5">
-        <v>70</v>
-      </c>
       <c r="I73" s="5">
+        <v>70</v>
+      </c>
+      <c r="J73" s="5">
         <v>58</v>
       </c>
-      <c r="J73" s="5">
+      <c r="K73" s="5">
         <v>78</v>
       </c>
-      <c r="K73" s="5">
+      <c r="L73" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2541737</v>
       </c>
@@ -3755,29 +4251,35 @@
       <c r="D74" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="5">
         <v>93</v>
       </c>
-      <c r="F74" s="5">
+      <c r="G74" s="5">
         <v>83</v>
       </c>
-      <c r="G74" s="5">
+      <c r="H74" s="5">
         <v>76</v>
       </c>
-      <c r="H74" s="5">
+      <c r="I74" s="5">
         <v>81</v>
       </c>
-      <c r="I74" s="5">
+      <c r="J74" s="5">
         <v>95</v>
       </c>
-      <c r="J74" s="5">
+      <c r="K74" s="5">
         <v>81</v>
       </c>
-      <c r="K74" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="5">
+        <v>70</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2557844</v>
       </c>
@@ -3790,29 +4292,35 @@
       <c r="D75" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="5">
         <v>93</v>
       </c>
-      <c r="F75" s="5">
-        <v>70</v>
-      </c>
       <c r="G75" s="5">
+        <v>70</v>
+      </c>
+      <c r="H75" s="5">
         <v>79</v>
       </c>
-      <c r="H75" s="5">
+      <c r="I75" s="5">
         <v>85</v>
       </c>
-      <c r="I75" s="5">
+      <c r="J75" s="5">
         <v>65</v>
       </c>
-      <c r="J75" s="5">
+      <c r="K75" s="5">
         <v>74</v>
       </c>
-      <c r="K75" s="5">
+      <c r="L75" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2562777</v>
       </c>
@@ -3825,29 +4333,35 @@
       <c r="D76" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="5">
         <v>85</v>
       </c>
-      <c r="F76" s="5">
-        <v>70</v>
-      </c>
       <c r="G76" s="5">
+        <v>70</v>
+      </c>
+      <c r="H76" s="5">
         <v>79</v>
       </c>
-      <c r="H76" s="5">
+      <c r="I76" s="5">
         <v>78</v>
       </c>
-      <c r="I76" s="5">
+      <c r="J76" s="5">
         <v>80</v>
       </c>
-      <c r="J76" s="5">
+      <c r="K76" s="5">
         <v>81</v>
       </c>
-      <c r="K76" s="5">
+      <c r="L76" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2567471</v>
       </c>
@@ -3860,29 +4374,35 @@
       <c r="D77" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="5">
-        <v>75</v>
+      <c r="E77" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="F77" s="5">
         <v>75</v>
       </c>
       <c r="G77" s="5">
+        <v>75</v>
+      </c>
+      <c r="H77" s="5">
         <v>60</v>
       </c>
-      <c r="H77" s="5">
-        <v>70</v>
-      </c>
       <c r="I77" s="5">
+        <v>70</v>
+      </c>
+      <c r="J77" s="5">
         <v>45</v>
       </c>
-      <c r="J77" s="5">
+      <c r="K77" s="5">
         <v>60</v>
       </c>
-      <c r="K77" s="5">
+      <c r="L77" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M77" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2570725</v>
       </c>
@@ -3895,29 +4415,35 @@
       <c r="D78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F78" s="5">
         <v>93</v>
       </c>
-      <c r="F78" s="5">
+      <c r="G78" s="5">
         <v>85</v>
       </c>
-      <c r="G78" s="5">
+      <c r="H78" s="5">
         <v>65</v>
       </c>
-      <c r="H78" s="5">
+      <c r="I78" s="5">
         <v>87</v>
       </c>
-      <c r="I78" s="5">
+      <c r="J78" s="5">
         <v>75</v>
       </c>
-      <c r="J78" s="5">
+      <c r="K78" s="5">
         <v>74</v>
       </c>
-      <c r="K78" s="5">
+      <c r="L78" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2574561</v>
       </c>
@@ -3930,29 +4456,35 @@
       <c r="D79" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F79" s="5">
         <v>80</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <v>53</v>
       </c>
-      <c r="G79" s="5">
+      <c r="H79" s="5">
         <v>58</v>
       </c>
-      <c r="H79" s="5">
+      <c r="I79" s="5">
         <v>68</v>
       </c>
-      <c r="I79" s="5">
+      <c r="J79" s="5">
         <v>55</v>
       </c>
-      <c r="J79" s="5">
+      <c r="K79" s="5">
         <v>64</v>
       </c>
-      <c r="K79" s="5">
+      <c r="L79" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M79" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2577494</v>
       </c>
@@ -3965,29 +4497,35 @@
       <c r="D80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="5">
         <v>88</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>80</v>
       </c>
-      <c r="G80" s="5">
+      <c r="H80" s="5">
         <v>67</v>
       </c>
-      <c r="H80" s="5">
-        <v>69</v>
-      </c>
       <c r="I80" s="5">
+        <v>69</v>
+      </c>
+      <c r="J80" s="5">
         <v>50</v>
       </c>
-      <c r="J80" s="5">
+      <c r="K80" s="5">
         <v>74</v>
       </c>
-      <c r="K80" s="5">
+      <c r="L80" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M80" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2579406</v>
       </c>
@@ -4000,29 +4538,35 @@
       <c r="D81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F81" s="5">
         <v>95</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>93</v>
       </c>
-      <c r="G81" s="5">
+      <c r="H81" s="5">
         <v>85</v>
       </c>
-      <c r="H81" s="5">
+      <c r="I81" s="5">
         <v>81</v>
       </c>
-      <c r="I81" s="5">
+      <c r="J81" s="5">
         <v>95</v>
-      </c>
-      <c r="J81" s="5">
-        <v>85</v>
       </c>
       <c r="K81" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="5">
+        <v>85</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2580962</v>
       </c>
@@ -4035,29 +4579,35 @@
       <c r="D82" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F82" s="5">
         <v>78</v>
       </c>
-      <c r="F82" s="5">
+      <c r="G82" s="5">
         <v>73</v>
       </c>
-      <c r="G82" s="5">
-        <v>69</v>
-      </c>
       <c r="H82" s="5">
+        <v>69</v>
+      </c>
+      <c r="I82" s="5">
         <v>74</v>
       </c>
-      <c r="I82" s="5">
+      <c r="J82" s="5">
         <v>45</v>
       </c>
-      <c r="J82" s="5">
+      <c r="K82" s="5">
         <v>78</v>
       </c>
-      <c r="K82" s="5">
+      <c r="L82" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2582026</v>
       </c>
@@ -4070,29 +4620,35 @@
       <c r="D83" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F83" s="5">
         <v>80</v>
       </c>
-      <c r="F83" s="5">
+      <c r="G83" s="5">
         <v>75</v>
       </c>
-      <c r="G83" s="5">
+      <c r="H83" s="5">
         <v>65</v>
       </c>
-      <c r="H83" s="5">
+      <c r="I83" s="5">
         <v>78</v>
       </c>
-      <c r="I83" s="5">
-        <v>70</v>
-      </c>
       <c r="J83" s="5">
+        <v>70</v>
+      </c>
+      <c r="K83" s="5">
         <v>60</v>
       </c>
-      <c r="K83" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="5">
+        <v>70</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2583912</v>
       </c>
@@ -4105,29 +4661,35 @@
       <c r="D84" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F84" s="5">
         <v>85</v>
       </c>
-      <c r="F84" s="5">
-        <v>70</v>
-      </c>
       <c r="G84" s="5">
+        <v>70</v>
+      </c>
+      <c r="H84" s="5">
         <v>60</v>
       </c>
-      <c r="H84" s="5">
+      <c r="I84" s="5">
         <v>78</v>
       </c>
-      <c r="I84" s="5">
+      <c r="J84" s="5">
         <v>65</v>
       </c>
-      <c r="J84" s="5">
+      <c r="K84" s="5">
         <v>74</v>
       </c>
-      <c r="K84" s="5">
+      <c r="L84" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2592946</v>
       </c>
@@ -4140,29 +4702,35 @@
       <c r="D85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="5">
         <v>95</v>
       </c>
-      <c r="F85" s="5">
-        <v>70</v>
-      </c>
       <c r="G85" s="5">
+        <v>70</v>
+      </c>
+      <c r="H85" s="5">
         <v>73</v>
       </c>
-      <c r="H85" s="5">
+      <c r="I85" s="5">
         <v>81</v>
       </c>
-      <c r="I85" s="5">
+      <c r="J85" s="5">
         <v>59</v>
       </c>
-      <c r="J85" s="5">
+      <c r="K85" s="5">
         <v>89</v>
       </c>
-      <c r="K85" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="5">
+        <v>70</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2597095</v>
       </c>
@@ -4175,29 +4743,35 @@
       <c r="D86" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="5">
         <v>83</v>
       </c>
-      <c r="F86" s="5">
+      <c r="G86" s="5">
         <v>65</v>
       </c>
-      <c r="G86" s="5">
+      <c r="H86" s="5">
         <v>63</v>
       </c>
-      <c r="H86" s="5">
+      <c r="I86" s="5">
         <v>81</v>
       </c>
-      <c r="I86" s="5">
+      <c r="J86" s="5">
         <v>73</v>
       </c>
-      <c r="J86" s="5">
+      <c r="K86" s="5">
         <v>78</v>
       </c>
-      <c r="K86" s="5">
+      <c r="L86" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2557982</v>
       </c>
@@ -4210,29 +4784,35 @@
       <c r="D87" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="5">
         <v>85</v>
       </c>
-      <c r="F87" s="5">
+      <c r="G87" s="5">
         <v>73</v>
       </c>
-      <c r="G87" s="5">
+      <c r="H87" s="5">
         <v>52</v>
       </c>
-      <c r="H87" s="5">
-        <v>70</v>
-      </c>
       <c r="I87" s="5">
+        <v>70</v>
+      </c>
+      <c r="J87" s="5">
         <v>48</v>
       </c>
-      <c r="J87" s="5">
+      <c r="K87" s="5">
         <v>53</v>
       </c>
-      <c r="K87" s="5">
+      <c r="L87" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2559567</v>
       </c>
@@ -4245,29 +4825,35 @@
       <c r="D88" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="5">
         <v>80</v>
       </c>
-      <c r="F88" s="5">
+      <c r="G88" s="5">
         <v>73</v>
       </c>
-      <c r="G88" s="5">
+      <c r="H88" s="5">
         <v>65</v>
       </c>
-      <c r="H88" s="5">
-        <v>69</v>
-      </c>
       <c r="I88" s="5">
+        <v>69</v>
+      </c>
+      <c r="J88" s="5">
         <v>75</v>
       </c>
-      <c r="J88" s="5">
-        <v>70</v>
-      </c>
       <c r="K88" s="5">
+        <v>70</v>
+      </c>
+      <c r="L88" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2573130</v>
       </c>
@@ -4280,29 +4866,35 @@
       <c r="D89" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="5">
         <v>85</v>
       </c>
-      <c r="F89" s="5">
+      <c r="G89" s="5">
         <v>93</v>
       </c>
-      <c r="G89" s="5">
+      <c r="H89" s="5">
         <v>66</v>
       </c>
-      <c r="H89" s="5">
+      <c r="I89" s="5">
         <v>81</v>
       </c>
-      <c r="I89" s="5">
+      <c r="J89" s="5">
         <v>60</v>
       </c>
-      <c r="J89" s="5">
+      <c r="K89" s="5">
         <v>68</v>
       </c>
-      <c r="K89" s="5">
+      <c r="L89" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2574713</v>
       </c>
@@ -4315,29 +4907,35 @@
       <c r="D90" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="5">
         <v>100</v>
       </c>
-      <c r="F90" s="5">
+      <c r="G90" s="5">
         <v>75</v>
       </c>
-      <c r="G90" s="5">
+      <c r="H90" s="5">
         <v>73</v>
       </c>
-      <c r="H90" s="5">
+      <c r="I90" s="5">
         <v>85</v>
       </c>
-      <c r="I90" s="5">
+      <c r="J90" s="5">
         <v>50</v>
       </c>
-      <c r="J90" s="5">
+      <c r="K90" s="5">
         <v>72</v>
       </c>
-      <c r="K90" s="5">
+      <c r="L90" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2579901</v>
       </c>
@@ -4350,29 +4948,35 @@
       <c r="D91" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F91" s="5">
         <v>95</v>
       </c>
-      <c r="F91" s="5">
+      <c r="G91" s="5">
         <v>83</v>
       </c>
-      <c r="G91" s="5">
+      <c r="H91" s="5">
         <v>61</v>
       </c>
-      <c r="H91" s="5">
-        <v>70</v>
-      </c>
       <c r="I91" s="5">
+        <v>70</v>
+      </c>
+      <c r="J91" s="5">
         <v>53</v>
       </c>
-      <c r="J91" s="5">
+      <c r="K91" s="5">
         <v>61</v>
       </c>
-      <c r="K91" s="5">
+      <c r="L91" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M91" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2586648</v>
       </c>
@@ -4385,29 +4989,35 @@
       <c r="D92" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="5">
         <v>88</v>
       </c>
-      <c r="F92" s="5">
+      <c r="G92" s="5">
         <v>80</v>
       </c>
-      <c r="G92" s="5">
+      <c r="H92" s="5">
         <v>91</v>
       </c>
-      <c r="H92" s="5">
+      <c r="I92" s="5">
         <v>93</v>
       </c>
-      <c r="I92" s="5">
+      <c r="J92" s="5">
         <v>49</v>
       </c>
-      <c r="J92" s="5">
-        <v>69</v>
-      </c>
       <c r="K92" s="5">
+        <v>69</v>
+      </c>
+      <c r="L92" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2590011</v>
       </c>
@@ -4420,29 +5030,35 @@
       <c r="D93" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F93" s="5">
         <v>85</v>
       </c>
-      <c r="F93" s="5">
+      <c r="G93" s="5">
         <v>60</v>
       </c>
-      <c r="G93" s="5">
+      <c r="H93" s="5">
         <v>61</v>
       </c>
-      <c r="H93" s="5">
-        <v>69</v>
-      </c>
       <c r="I93" s="5">
+        <v>69</v>
+      </c>
+      <c r="J93" s="5">
         <v>58</v>
       </c>
-      <c r="J93" s="5">
-        <v>70</v>
-      </c>
       <c r="K93" s="5">
+        <v>70</v>
+      </c>
+      <c r="L93" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2592914</v>
       </c>
@@ -4455,29 +5071,35 @@
       <c r="D94" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E94" s="5">
-        <v>83</v>
+      <c r="E94" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F94" s="5">
         <v>83</v>
       </c>
       <c r="G94" s="5">
+        <v>83</v>
+      </c>
+      <c r="H94" s="5">
         <v>54</v>
       </c>
-      <c r="H94" s="5">
+      <c r="I94" s="5">
         <v>74</v>
       </c>
-      <c r="I94" s="5">
+      <c r="J94" s="5">
         <v>68</v>
       </c>
-      <c r="J94" s="5">
+      <c r="K94" s="5">
         <v>74</v>
       </c>
-      <c r="K94" s="5">
+      <c r="L94" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2593391</v>
       </c>
@@ -4490,29 +5112,35 @@
       <c r="D95" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="5">
         <v>83</v>
       </c>
-      <c r="F95" s="5">
-        <v>70</v>
-      </c>
       <c r="G95" s="5">
+        <v>70</v>
+      </c>
+      <c r="H95" s="5">
         <v>60</v>
       </c>
-      <c r="H95" s="5">
-        <v>69</v>
-      </c>
       <c r="I95" s="5">
+        <v>69</v>
+      </c>
+      <c r="J95" s="5">
         <v>58</v>
       </c>
-      <c r="J95" s="5">
+      <c r="K95" s="5">
         <v>53</v>
       </c>
-      <c r="K95" s="5">
+      <c r="L95" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2600635</v>
       </c>
@@ -4525,29 +5153,35 @@
       <c r="D96" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" s="5">
         <v>67</v>
       </c>
-      <c r="F96" s="5">
+      <c r="G96" s="5">
         <v>65</v>
       </c>
-      <c r="G96" s="5">
+      <c r="H96" s="5">
         <v>56</v>
       </c>
-      <c r="H96" s="5">
-        <v>70</v>
-      </c>
       <c r="I96" s="5">
+        <v>70</v>
+      </c>
+      <c r="J96" s="5">
         <v>48</v>
       </c>
-      <c r="J96" s="5">
+      <c r="K96" s="5">
         <v>66</v>
       </c>
-      <c r="K96" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="5">
+        <v>69</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2531305</v>
       </c>
@@ -4560,29 +5194,35 @@
       <c r="D97" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="5">
         <v>100</v>
       </c>
-      <c r="F97" s="5">
+      <c r="G97" s="5">
         <v>90</v>
       </c>
-      <c r="G97" s="5">
+      <c r="H97" s="5">
         <v>79</v>
       </c>
-      <c r="H97" s="5">
+      <c r="I97" s="5">
         <v>74</v>
       </c>
-      <c r="I97" s="5">
+      <c r="J97" s="5">
         <v>87</v>
       </c>
-      <c r="J97" s="5">
+      <c r="K97" s="5">
         <v>79</v>
       </c>
-      <c r="K97" s="5">
+      <c r="L97" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2557182</v>
       </c>
@@ -4595,29 +5235,35 @@
       <c r="D98" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" s="5">
         <v>78</v>
       </c>
-      <c r="F98" s="5">
-        <v>70</v>
-      </c>
       <c r="G98" s="5">
+        <v>70</v>
+      </c>
+      <c r="H98" s="5">
         <v>60</v>
       </c>
-      <c r="H98" s="5">
+      <c r="I98" s="5">
         <v>74</v>
       </c>
-      <c r="I98" s="5">
+      <c r="J98" s="5">
         <v>48</v>
       </c>
-      <c r="J98" s="5">
+      <c r="K98" s="5">
         <v>61</v>
       </c>
-      <c r="K98" s="5">
+      <c r="L98" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2558573</v>
       </c>
@@ -4630,29 +5276,35 @@
       <c r="D99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" s="5">
         <v>88</v>
       </c>
-      <c r="F99" s="5">
+      <c r="G99" s="5">
         <v>65</v>
       </c>
-      <c r="G99" s="5">
+      <c r="H99" s="5">
         <v>63</v>
       </c>
-      <c r="H99" s="5">
+      <c r="I99" s="5">
         <v>61</v>
-      </c>
-      <c r="I99" s="5">
-        <v>40</v>
       </c>
       <c r="J99" s="5">
         <v>40</v>
       </c>
       <c r="K99" s="5">
+        <v>40</v>
+      </c>
+      <c r="L99" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2560632</v>
       </c>
@@ -4665,29 +5317,35 @@
       <c r="D100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" s="5">
         <v>95</v>
       </c>
-      <c r="F100" s="5">
+      <c r="G100" s="5">
         <v>93</v>
       </c>
-      <c r="G100" s="5">
+      <c r="H100" s="5">
         <v>66</v>
       </c>
-      <c r="H100" s="5">
+      <c r="I100" s="5">
         <v>85</v>
       </c>
-      <c r="I100" s="5">
+      <c r="J100" s="5">
         <v>68</v>
       </c>
-      <c r="J100" s="5">
+      <c r="K100" s="5">
         <v>78</v>
       </c>
-      <c r="K100" s="5">
+      <c r="L100" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2576277</v>
       </c>
@@ -4700,29 +5358,35 @@
       <c r="D101" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" s="5">
         <v>95</v>
       </c>
-      <c r="F101" s="5">
+      <c r="G101" s="5">
         <v>90</v>
       </c>
-      <c r="G101" s="5">
+      <c r="H101" s="5">
         <v>64</v>
       </c>
-      <c r="H101" s="5">
+      <c r="I101" s="5">
         <v>85</v>
       </c>
-      <c r="I101" s="5">
-        <v>70</v>
-      </c>
       <c r="J101" s="5">
+        <v>70</v>
+      </c>
+      <c r="K101" s="5">
         <v>85</v>
       </c>
-      <c r="K101" s="5">
+      <c r="L101" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2576286</v>
       </c>
@@ -4735,29 +5399,35 @@
       <c r="D102" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" s="5">
         <v>90</v>
       </c>
-      <c r="F102" s="5">
+      <c r="G102" s="5">
         <v>93</v>
-      </c>
-      <c r="G102" s="5">
-        <v>85</v>
       </c>
       <c r="H102" s="5">
         <v>85</v>
       </c>
       <c r="I102" s="5">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J102" s="5">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K102" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="5">
+        <v>78</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2581579</v>
       </c>
@@ -4770,29 +5440,35 @@
       <c r="D103" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" s="5">
         <v>88</v>
       </c>
-      <c r="F103" s="5">
+      <c r="G103" s="5">
         <v>85</v>
       </c>
-      <c r="G103" s="5">
+      <c r="H103" s="5">
         <v>73</v>
       </c>
-      <c r="H103" s="5">
+      <c r="I103" s="5">
         <v>89</v>
       </c>
-      <c r="I103" s="5">
+      <c r="J103" s="5">
         <v>42</v>
       </c>
-      <c r="J103" s="5">
-        <v>70</v>
-      </c>
       <c r="K103" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="5">
+        <v>70</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2584858</v>
       </c>
@@ -4805,29 +5481,35 @@
       <c r="D104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" s="5">
         <v>95</v>
       </c>
-      <c r="F104" s="5">
+      <c r="G104" s="5">
         <v>93</v>
       </c>
-      <c r="G104" s="5">
+      <c r="H104" s="5">
         <v>94</v>
       </c>
-      <c r="H104" s="5">
+      <c r="I104" s="5">
         <v>85</v>
       </c>
-      <c r="I104" s="5">
+      <c r="J104" s="5">
         <v>75</v>
       </c>
-      <c r="J104" s="5">
+      <c r="K104" s="5">
         <v>93</v>
       </c>
-      <c r="K104" s="5">
+      <c r="L104" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2586030</v>
       </c>
@@ -4840,29 +5522,35 @@
       <c r="D105" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F105" s="5">
         <v>65</v>
       </c>
-      <c r="F105" s="5">
+      <c r="G105" s="5">
         <v>48</v>
       </c>
-      <c r="G105" s="5">
+      <c r="H105" s="5">
         <v>36</v>
       </c>
-      <c r="H105" s="5">
-        <v>70</v>
-      </c>
       <c r="I105" s="5">
+        <v>70</v>
+      </c>
+      <c r="J105" s="5">
         <v>85</v>
       </c>
-      <c r="J105" s="5">
+      <c r="K105" s="5">
         <v>58</v>
       </c>
-      <c r="K105" s="5">
+      <c r="L105" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2595246</v>
       </c>
@@ -4875,29 +5563,35 @@
       <c r="D106" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F106" s="5">
         <v>90</v>
       </c>
-      <c r="F106" s="5">
+      <c r="G106" s="5">
         <v>65</v>
       </c>
-      <c r="G106" s="5">
+      <c r="H106" s="5">
         <v>67</v>
       </c>
-      <c r="H106" s="5">
-        <v>70</v>
-      </c>
       <c r="I106" s="5">
+        <v>70</v>
+      </c>
+      <c r="J106" s="5">
         <v>49</v>
       </c>
-      <c r="J106" s="5">
+      <c r="K106" s="5">
         <v>63</v>
       </c>
-      <c r="K106" s="5">
+      <c r="L106" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2596560</v>
       </c>
@@ -4910,29 +5604,35 @@
       <c r="D107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E107" s="5">
-        <v>93</v>
+      <c r="E107" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F107" s="5">
         <v>93</v>
       </c>
       <c r="G107" s="5">
+        <v>93</v>
+      </c>
+      <c r="H107" s="5">
         <v>65</v>
       </c>
-      <c r="H107" s="5">
+      <c r="I107" s="5">
         <v>89</v>
       </c>
-      <c r="I107" s="5">
+      <c r="J107" s="5">
         <v>53</v>
       </c>
-      <c r="J107" s="5">
+      <c r="K107" s="5">
         <v>74</v>
       </c>
-      <c r="K107" s="5">
+      <c r="L107" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M107" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2599995</v>
       </c>
@@ -4945,29 +5645,35 @@
       <c r="D108" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F108" s="5">
         <v>83</v>
       </c>
-      <c r="F108" s="5">
+      <c r="G108" s="5">
         <v>85</v>
       </c>
-      <c r="G108" s="5">
-        <v>70</v>
-      </c>
       <c r="H108" s="5">
+        <v>70</v>
+      </c>
+      <c r="I108" s="5">
         <v>85</v>
       </c>
-      <c r="I108" s="5">
+      <c r="J108" s="5">
         <v>77</v>
       </c>
-      <c r="J108" s="5">
+      <c r="K108" s="5">
         <v>81</v>
       </c>
-      <c r="K108" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="5">
+        <v>70</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2597625</v>
       </c>
@@ -4980,29 +5686,35 @@
       <c r="D109" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F109" s="5">
         <v>90</v>
       </c>
-      <c r="F109" s="5">
+      <c r="G109" s="5">
         <v>77.5</v>
       </c>
-      <c r="G109" s="5">
+      <c r="H109" s="5">
         <v>67</v>
       </c>
-      <c r="H109" s="5">
+      <c r="I109" s="5">
         <v>96</v>
       </c>
-      <c r="I109" s="5">
+      <c r="J109" s="5">
         <v>85</v>
       </c>
-      <c r="J109" s="5">
+      <c r="K109" s="5">
         <v>96</v>
       </c>
-      <c r="K109" s="5">
+      <c r="L109" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2593935</v>
       </c>
@@ -5015,29 +5727,35 @@
       <c r="D110" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F110" s="5">
         <v>95</v>
       </c>
-      <c r="F110" s="5">
+      <c r="G110" s="5">
         <v>85</v>
       </c>
-      <c r="G110" s="5">
-        <v>70</v>
-      </c>
       <c r="H110" s="5">
+        <v>70</v>
+      </c>
+      <c r="I110" s="5">
         <v>89</v>
       </c>
-      <c r="I110" s="5">
+      <c r="J110" s="5">
         <v>60</v>
       </c>
-      <c r="J110" s="5">
-        <v>69</v>
-      </c>
       <c r="K110" s="5">
+        <v>69</v>
+      </c>
+      <c r="L110" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2361128</v>
       </c>
@@ -5050,29 +5768,35 @@
       <c r="D111" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F111" s="5">
         <v>87</v>
       </c>
-      <c r="F111" s="5">
+      <c r="G111" s="5">
         <v>72.5</v>
       </c>
-      <c r="G111" s="5">
+      <c r="H111" s="5">
         <v>62</v>
       </c>
-      <c r="H111" s="5">
+      <c r="I111" s="5">
         <v>81</v>
       </c>
-      <c r="I111" s="5">
+      <c r="J111" s="5">
         <v>28</v>
       </c>
-      <c r="J111" s="5">
+      <c r="K111" s="5">
         <v>74</v>
       </c>
-      <c r="K111" s="5">
+      <c r="L111" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M111" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2599303</v>
       </c>
@@ -5085,29 +5809,35 @@
       <c r="D112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F112" s="5">
         <v>88</v>
       </c>
-      <c r="F112" s="5">
+      <c r="G112" s="5">
         <v>75</v>
       </c>
-      <c r="G112" s="5">
+      <c r="H112" s="5">
         <v>67</v>
       </c>
-      <c r="H112" s="5">
+      <c r="I112" s="5">
         <v>81</v>
       </c>
-      <c r="I112" s="5">
-        <v>69</v>
-      </c>
       <c r="J112" s="5">
+        <v>69</v>
+      </c>
+      <c r="K112" s="5">
         <v>81</v>
       </c>
-      <c r="K112" s="5">
+      <c r="L112" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2505881</v>
       </c>
@@ -5120,29 +5850,35 @@
       <c r="D113" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F113" s="5">
         <v>92.5</v>
       </c>
-      <c r="F113" s="5">
+      <c r="G113" s="5">
         <v>90</v>
       </c>
-      <c r="G113" s="5">
+      <c r="H113" s="5">
         <v>79</v>
       </c>
-      <c r="H113" s="5">
+      <c r="I113" s="5">
         <v>60</v>
       </c>
-      <c r="I113" s="5">
+      <c r="J113" s="5">
         <v>39</v>
       </c>
-      <c r="J113" s="5">
+      <c r="K113" s="5">
         <v>43</v>
       </c>
-      <c r="K113" s="5">
+      <c r="L113" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2566830</v>
       </c>
@@ -5155,29 +5891,35 @@
       <c r="D114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F114" s="5">
         <v>93</v>
       </c>
-      <c r="F114" s="5">
+      <c r="G114" s="5">
         <v>90</v>
       </c>
-      <c r="G114" s="5">
-        <v>69</v>
-      </c>
       <c r="H114" s="5">
+        <v>69</v>
+      </c>
+      <c r="I114" s="5">
         <v>85</v>
       </c>
-      <c r="I114" s="5">
-        <v>70</v>
-      </c>
       <c r="J114" s="5">
+        <v>70</v>
+      </c>
+      <c r="K114" s="5">
         <v>74</v>
       </c>
-      <c r="K114" s="5">
+      <c r="L114" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2593930</v>
       </c>
@@ -5190,29 +5932,35 @@
       <c r="D115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F115" s="5">
         <v>75</v>
       </c>
-      <c r="F115" s="5">
+      <c r="G115" s="5">
         <v>65</v>
       </c>
-      <c r="G115" s="5">
+      <c r="H115" s="5">
         <v>56</v>
       </c>
-      <c r="H115" s="5">
-        <v>70</v>
-      </c>
       <c r="I115" s="5">
+        <v>70</v>
+      </c>
+      <c r="J115" s="5">
         <v>53</v>
       </c>
-      <c r="J115" s="5">
+      <c r="K115" s="5">
         <v>48</v>
       </c>
-      <c r="K115" s="5">
+      <c r="L115" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2599971</v>
       </c>
@@ -5225,29 +5973,35 @@
       <c r="D116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F116" s="5">
         <v>62</v>
       </c>
-      <c r="F116" s="5">
+      <c r="G116" s="5">
         <v>87.5</v>
       </c>
-      <c r="G116" s="5">
+      <c r="H116" s="5">
         <v>61</v>
       </c>
-      <c r="H116" s="5">
-        <v>70</v>
-      </c>
       <c r="I116" s="5">
+        <v>70</v>
+      </c>
+      <c r="J116" s="5">
         <v>65</v>
       </c>
-      <c r="J116" s="5">
+      <c r="K116" s="5">
         <v>80</v>
       </c>
-      <c r="K116" s="5">
+      <c r="L116" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2600749</v>
       </c>
@@ -5260,29 +6014,35 @@
       <c r="D117" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F117" s="5">
         <v>75</v>
       </c>
-      <c r="F117" s="5">
+      <c r="G117" s="5">
         <v>65</v>
       </c>
-      <c r="G117" s="5">
+      <c r="H117" s="5">
         <v>52</v>
       </c>
-      <c r="H117" s="5">
-        <v>70</v>
-      </c>
       <c r="I117" s="5">
+        <v>70</v>
+      </c>
+      <c r="J117" s="5">
         <v>60</v>
       </c>
-      <c r="J117" s="5">
+      <c r="K117" s="5">
         <v>58</v>
       </c>
-      <c r="K117" s="5">
+      <c r="L117" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2597008</v>
       </c>
@@ -5295,29 +6055,35 @@
       <c r="D118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" s="5">
         <v>75</v>
       </c>
-      <c r="F118" s="5">
-        <v>70</v>
-      </c>
       <c r="G118" s="5">
+        <v>70</v>
+      </c>
+      <c r="H118" s="5">
         <v>62</v>
       </c>
-      <c r="H118" s="5">
+      <c r="I118" s="5">
         <v>68</v>
       </c>
-      <c r="I118" s="5">
+      <c r="J118" s="5">
         <v>53</v>
       </c>
-      <c r="J118" s="5">
+      <c r="K118" s="5">
         <v>43</v>
       </c>
-      <c r="K118" s="5">
+      <c r="L118" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2496521</v>
       </c>
@@ -5330,29 +6096,35 @@
       <c r="D119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F119" s="5">
         <v>72.5</v>
       </c>
-      <c r="F119" s="5">
+      <c r="G119" s="5">
         <v>47.5</v>
       </c>
-      <c r="G119" s="5">
+      <c r="H119" s="5">
         <v>54</v>
       </c>
-      <c r="H119" s="5">
+      <c r="I119" s="5">
         <v>85</v>
       </c>
-      <c r="I119" s="5">
+      <c r="J119" s="5">
         <v>55</v>
       </c>
-      <c r="J119" s="5">
-        <v>69</v>
-      </c>
       <c r="K119" s="5">
+        <v>69</v>
+      </c>
+      <c r="L119" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2581836</v>
       </c>
@@ -5365,29 +6137,35 @@
       <c r="D120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E120" s="5">
-        <v>57.5</v>
+      <c r="E120" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F120" s="5">
         <v>57.5</v>
       </c>
       <c r="G120" s="5">
+        <v>57.5</v>
+      </c>
+      <c r="H120" s="5">
         <v>64</v>
       </c>
-      <c r="H120" s="5">
+      <c r="I120" s="5">
         <v>60</v>
       </c>
-      <c r="I120" s="5">
+      <c r="J120" s="5">
         <v>64</v>
       </c>
-      <c r="J120" s="5">
+      <c r="K120" s="5">
         <v>65</v>
       </c>
-      <c r="K120" s="5">
+      <c r="L120" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2599734</v>
       </c>
@@ -5400,29 +6178,35 @@
       <c r="D121" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F121" s="5">
         <v>80</v>
       </c>
-      <c r="F121" s="5">
+      <c r="G121" s="5">
         <v>72.5</v>
       </c>
-      <c r="G121" s="5">
+      <c r="H121" s="5">
         <v>66</v>
       </c>
-      <c r="H121" s="5">
+      <c r="I121" s="5">
         <v>81</v>
       </c>
-      <c r="I121" s="5">
+      <c r="J121" s="5">
         <v>64</v>
       </c>
-      <c r="J121" s="5">
+      <c r="K121" s="5">
         <v>81</v>
       </c>
-      <c r="K121" s="5">
+      <c r="L121" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2585443</v>
       </c>
@@ -5435,29 +6219,35 @@
       <c r="D122" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E122" s="5">
-        <v>70</v>
+      <c r="E122" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F122" s="5">
+        <v>70</v>
+      </c>
+      <c r="G122" s="5">
         <v>62.5</v>
       </c>
-      <c r="G122" s="5">
+      <c r="H122" s="5">
         <v>58</v>
       </c>
-      <c r="H122" s="5">
+      <c r="I122" s="5">
         <v>66</v>
       </c>
-      <c r="I122" s="5">
+      <c r="J122" s="5">
         <v>43</v>
       </c>
-      <c r="J122" s="5">
+      <c r="K122" s="5">
         <v>63</v>
       </c>
-      <c r="K122" s="5">
+      <c r="L122" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2546063</v>
       </c>
@@ -5470,29 +6260,35 @@
       <c r="D123" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F123" s="5">
         <v>78</v>
       </c>
-      <c r="F123" s="5">
-        <v>70</v>
-      </c>
       <c r="G123" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H123" s="5">
         <v>65</v>
       </c>
       <c r="I123" s="5">
+        <v>65</v>
+      </c>
+      <c r="J123" s="5">
         <v>57</v>
       </c>
-      <c r="J123" s="5">
+      <c r="K123" s="5">
         <v>68</v>
       </c>
-      <c r="K123" s="5">
+      <c r="L123" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M123" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2376377</v>
       </c>
@@ -5505,29 +6301,35 @@
       <c r="D124" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F124" s="5">
         <v>88</v>
       </c>
-      <c r="F124" s="5">
+      <c r="G124" s="5">
         <v>90</v>
       </c>
-      <c r="G124" s="5">
+      <c r="H124" s="5">
         <v>73</v>
       </c>
-      <c r="H124" s="5">
+      <c r="I124" s="5">
         <v>89</v>
       </c>
-      <c r="I124" s="5">
-        <v>69</v>
-      </c>
       <c r="J124" s="5">
+        <v>69</v>
+      </c>
+      <c r="K124" s="5">
         <v>74</v>
       </c>
-      <c r="K124" s="5">
+      <c r="L124" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M124" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2600980</v>
       </c>
@@ -5540,29 +6342,35 @@
       <c r="D125" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F125" s="5">
         <v>67.5</v>
       </c>
-      <c r="F125" s="5">
-        <v>70</v>
-      </c>
       <c r="G125" s="5">
+        <v>70</v>
+      </c>
+      <c r="H125" s="5">
         <v>60</v>
-      </c>
-      <c r="H125" s="5">
-        <v>55</v>
       </c>
       <c r="I125" s="5">
         <v>55</v>
       </c>
       <c r="J125" s="5">
+        <v>55</v>
+      </c>
+      <c r="K125" s="5">
         <v>45</v>
       </c>
-      <c r="K125" s="5">
+      <c r="L125" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M125" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2488188</v>
       </c>
@@ -5575,29 +6383,35 @@
       <c r="D126" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="5">
         <v>72.5</v>
       </c>
-      <c r="F126" s="5">
+      <c r="G126" s="5">
         <v>57.5</v>
       </c>
-      <c r="G126" s="5">
+      <c r="H126" s="5">
         <v>40</v>
       </c>
-      <c r="H126" s="5">
+      <c r="I126" s="5">
         <v>60</v>
       </c>
-      <c r="I126" s="5">
+      <c r="J126" s="5">
         <v>52</v>
       </c>
-      <c r="J126" s="5">
+      <c r="K126" s="5">
         <v>60</v>
       </c>
-      <c r="K126" s="5">
+      <c r="L126" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M126" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2540043</v>
       </c>
@@ -5610,29 +6424,35 @@
       <c r="D127" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F127" s="5">
         <v>50</v>
-      </c>
-      <c r="F127" s="5">
-        <v>60</v>
       </c>
       <c r="G127" s="5">
         <v>60</v>
       </c>
       <c r="H127" s="5">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I127" s="5">
+        <v>69</v>
+      </c>
+      <c r="J127" s="5">
         <v>48</v>
       </c>
-      <c r="J127" s="5">
+      <c r="K127" s="5">
         <v>55</v>
       </c>
-      <c r="K127" s="5">
+      <c r="L127" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M127" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2600373</v>
       </c>
@@ -5645,29 +6465,35 @@
       <c r="D128" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F128" s="5">
         <v>88</v>
       </c>
-      <c r="F128" s="5">
+      <c r="G128" s="5">
         <v>55</v>
       </c>
-      <c r="G128" s="5">
+      <c r="H128" s="5">
         <v>50</v>
       </c>
-      <c r="H128" s="5">
+      <c r="I128" s="5">
         <v>64</v>
       </c>
-      <c r="I128" s="5">
+      <c r="J128" s="5">
         <v>55</v>
       </c>
-      <c r="J128" s="5">
+      <c r="K128" s="5">
         <v>64</v>
       </c>
-      <c r="K128" s="5">
+      <c r="L128" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M128" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2453915</v>
       </c>
@@ -5680,29 +6506,35 @@
       <c r="D129" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F129" s="5">
         <v>90</v>
       </c>
-      <c r="F129" s="5">
+      <c r="G129" s="5">
         <v>85</v>
       </c>
-      <c r="G129" s="5">
+      <c r="H129" s="5">
         <v>61</v>
       </c>
-      <c r="H129" s="5">
-        <v>70</v>
-      </c>
       <c r="I129" s="5">
+        <v>70</v>
+      </c>
+      <c r="J129" s="5">
         <v>45</v>
       </c>
-      <c r="J129" s="5">
+      <c r="K129" s="5">
         <v>61</v>
       </c>
-      <c r="K129" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="5">
+        <v>70</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2590441</v>
       </c>
@@ -5715,29 +6547,35 @@
       <c r="D130" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F130" s="5">
         <v>85</v>
       </c>
-      <c r="F130" s="5">
+      <c r="G130" s="5">
         <v>65</v>
       </c>
-      <c r="G130" s="5">
+      <c r="H130" s="5">
         <v>58</v>
       </c>
-      <c r="H130" s="5">
+      <c r="I130" s="5">
         <v>78</v>
       </c>
-      <c r="I130" s="5">
+      <c r="J130" s="5">
         <v>35</v>
       </c>
-      <c r="J130" s="5">
+      <c r="K130" s="5">
         <v>67</v>
       </c>
-      <c r="K130" s="5">
+      <c r="L130" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M130" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2596744</v>
       </c>
@@ -5750,29 +6588,35 @@
       <c r="D131" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F131" s="5">
         <v>73</v>
       </c>
-      <c r="F131" s="5">
+      <c r="G131" s="5">
         <v>57.5</v>
       </c>
-      <c r="G131" s="5">
+      <c r="H131" s="5">
         <v>62</v>
       </c>
-      <c r="H131" s="5">
+      <c r="I131" s="5">
         <v>83</v>
       </c>
-      <c r="I131" s="5">
+      <c r="J131" s="5">
         <v>73</v>
       </c>
-      <c r="J131" s="5">
+      <c r="K131" s="5">
         <v>76</v>
       </c>
-      <c r="K131" s="5">
+      <c r="L131" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M131" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2600923</v>
       </c>
@@ -5785,29 +6629,35 @@
       <c r="D132" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F132" s="5">
         <v>75</v>
       </c>
-      <c r="F132" s="5">
+      <c r="G132" s="5">
         <v>80</v>
       </c>
-      <c r="G132" s="5">
+      <c r="H132" s="5">
         <v>56</v>
       </c>
-      <c r="H132" s="5">
-        <v>69</v>
-      </c>
       <c r="I132" s="5">
+        <v>69</v>
+      </c>
+      <c r="J132" s="5">
         <v>55</v>
       </c>
-      <c r="J132" s="5">
+      <c r="K132" s="5">
         <v>60</v>
       </c>
-      <c r="K132" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="5">
+        <v>70</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2587299</v>
       </c>
@@ -5820,29 +6670,35 @@
       <c r="D133" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F133" s="5">
         <v>65</v>
       </c>
-      <c r="F133" s="5">
+      <c r="G133" s="5">
         <v>75</v>
       </c>
-      <c r="G133" s="5">
+      <c r="H133" s="5">
         <v>65</v>
       </c>
-      <c r="H133" s="5">
+      <c r="I133" s="5">
         <v>60</v>
       </c>
-      <c r="I133" s="5">
+      <c r="J133" s="5">
         <v>53</v>
       </c>
-      <c r="J133" s="5">
+      <c r="K133" s="5">
         <v>60</v>
       </c>
-      <c r="K133" s="5">
+      <c r="L133" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M133" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2597355</v>
       </c>
@@ -5855,29 +6711,35 @@
       <c r="D134" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F134" s="5">
         <v>98</v>
       </c>
-      <c r="F134" s="5">
+      <c r="G134" s="5">
         <v>90</v>
       </c>
-      <c r="G134" s="5">
-        <v>69</v>
-      </c>
       <c r="H134" s="5">
+        <v>69</v>
+      </c>
+      <c r="I134" s="5">
         <v>89</v>
       </c>
-      <c r="I134" s="5">
+      <c r="J134" s="5">
         <v>63</v>
       </c>
-      <c r="J134" s="5">
+      <c r="K134" s="5">
         <v>93</v>
       </c>
-      <c r="K134" s="5">
+      <c r="L134" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M134" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2575719</v>
       </c>
@@ -5890,29 +6752,35 @@
       <c r="D135" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E135" s="5">
-        <v>65</v>
+      <c r="E135" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F135" s="5">
         <v>65</v>
       </c>
       <c r="G135" s="5">
+        <v>65</v>
+      </c>
+      <c r="H135" s="5">
         <v>62</v>
       </c>
-      <c r="H135" s="5">
-        <v>69</v>
-      </c>
       <c r="I135" s="5">
+        <v>69</v>
+      </c>
+      <c r="J135" s="5">
         <v>67</v>
       </c>
-      <c r="J135" s="5">
-        <v>70</v>
-      </c>
       <c r="K135" s="5">
+        <v>70</v>
+      </c>
+      <c r="L135" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M135" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2441393</v>
       </c>
@@ -5925,29 +6793,35 @@
       <c r="D136" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E136" s="5">
-        <v>70</v>
+      <c r="E136" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F136" s="5">
+        <v>70</v>
+      </c>
+      <c r="G136" s="5">
         <v>75</v>
       </c>
-      <c r="G136" s="5">
+      <c r="H136" s="5">
         <v>54</v>
       </c>
-      <c r="H136" s="5">
-        <v>70</v>
-      </c>
       <c r="I136" s="5">
+        <v>70</v>
+      </c>
+      <c r="J136" s="5">
         <v>80</v>
       </c>
-      <c r="J136" s="5">
+      <c r="K136" s="5">
         <v>68</v>
       </c>
-      <c r="K136" s="5">
+      <c r="L136" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M136" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2596869</v>
       </c>
@@ -5960,29 +6834,35 @@
       <c r="D137" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F137" s="5">
         <v>87</v>
       </c>
-      <c r="F137" s="5">
+      <c r="G137" s="5">
         <v>82.5</v>
       </c>
-      <c r="G137" s="5">
+      <c r="H137" s="5">
         <v>66</v>
       </c>
-      <c r="H137" s="5">
-        <v>70</v>
-      </c>
       <c r="I137" s="5">
+        <v>70</v>
+      </c>
+      <c r="J137" s="5">
         <v>63</v>
       </c>
-      <c r="J137" s="5">
+      <c r="K137" s="5">
         <v>65</v>
       </c>
-      <c r="K137" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="5">
+        <v>70</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2513067</v>
       </c>
@@ -5995,29 +6875,35 @@
       <c r="D138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F138" s="5">
         <v>62</v>
       </c>
-      <c r="F138" s="5">
+      <c r="G138" s="5">
         <v>55</v>
       </c>
-      <c r="G138" s="5">
+      <c r="H138" s="5">
         <v>48</v>
       </c>
-      <c r="H138" s="5">
+      <c r="I138" s="5">
         <v>65</v>
       </c>
-      <c r="I138" s="5">
+      <c r="J138" s="5">
         <v>95</v>
       </c>
-      <c r="J138" s="5">
+      <c r="K138" s="5">
         <v>66</v>
       </c>
-      <c r="K138" s="5">
+      <c r="L138" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M138" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2596207</v>
       </c>
@@ -6030,29 +6916,35 @@
       <c r="D139" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F139" s="5">
         <v>65</v>
       </c>
-      <c r="F139" s="5">
+      <c r="G139" s="5">
         <v>67.5</v>
       </c>
-      <c r="G139" s="5">
+      <c r="H139" s="5">
         <v>62</v>
       </c>
-      <c r="H139" s="5">
+      <c r="I139" s="5">
         <v>60</v>
       </c>
-      <c r="I139" s="5">
+      <c r="J139" s="5">
         <v>58</v>
       </c>
-      <c r="J139" s="5">
+      <c r="K139" s="5">
         <v>53</v>
       </c>
-      <c r="K139" s="5">
+      <c r="L139" s="5">
         <v>86</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M139" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2494621</v>
       </c>
@@ -6065,29 +6957,35 @@
       <c r="D140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F140" s="5">
         <v>52.5</v>
       </c>
-      <c r="F140" s="5">
+      <c r="G140" s="5">
         <v>62.5</v>
       </c>
-      <c r="G140" s="5">
+      <c r="H140" s="5">
         <v>60</v>
       </c>
-      <c r="H140" s="5">
+      <c r="I140" s="5">
         <v>66</v>
       </c>
-      <c r="I140" s="5">
+      <c r="J140" s="5">
         <v>58</v>
       </c>
-      <c r="J140" s="5">
+      <c r="K140" s="5">
         <v>64</v>
       </c>
-      <c r="K140" s="5">
+      <c r="L140" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M140" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2585889</v>
       </c>
@@ -6100,29 +6998,35 @@
       <c r="D141" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F141" s="5">
         <v>65</v>
       </c>
-      <c r="F141" s="5">
+      <c r="G141" s="5">
         <v>55</v>
       </c>
-      <c r="G141" s="5">
+      <c r="H141" s="5">
         <v>56</v>
       </c>
-      <c r="H141" s="5">
-        <v>69</v>
-      </c>
       <c r="I141" s="5">
+        <v>69</v>
+      </c>
+      <c r="J141" s="5">
         <v>54</v>
       </c>
-      <c r="J141" s="5">
+      <c r="K141" s="5">
         <v>64</v>
       </c>
-      <c r="K141" s="5">
+      <c r="L141" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M141" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2510507</v>
       </c>
@@ -6135,29 +7039,35 @@
       <c r="D142" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F142" s="5">
         <v>72</v>
       </c>
-      <c r="F142" s="5">
+      <c r="G142" s="5">
         <v>77.5</v>
       </c>
-      <c r="G142" s="5">
+      <c r="H142" s="5">
         <v>65</v>
       </c>
-      <c r="H142" s="5">
+      <c r="I142" s="5">
         <v>60</v>
       </c>
-      <c r="I142" s="5">
+      <c r="J142" s="5">
         <v>50</v>
       </c>
-      <c r="J142" s="5">
+      <c r="K142" s="5">
         <v>65</v>
       </c>
-      <c r="K142" s="5">
+      <c r="L142" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M142" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>2567608</v>
       </c>
@@ -6170,29 +7080,35 @@
       <c r="D143" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F143" s="5">
         <v>82.5</v>
       </c>
-      <c r="F143" s="5">
+      <c r="G143" s="5">
         <v>50</v>
       </c>
-      <c r="G143" s="5">
+      <c r="H143" s="5">
         <v>67</v>
       </c>
-      <c r="H143" s="5">
+      <c r="I143" s="5">
         <v>74</v>
       </c>
-      <c r="I143" s="5">
-        <v>70</v>
-      </c>
       <c r="J143" s="5">
+        <v>70</v>
+      </c>
+      <c r="K143" s="5">
         <v>66</v>
       </c>
-      <c r="K143" s="5">
+      <c r="L143" s="5">
         <v>82</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M143" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2600043</v>
       </c>
@@ -6205,29 +7121,35 @@
       <c r="D144" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E144" s="5">
-        <v>95</v>
+      <c r="E144" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F144" s="5">
         <v>95</v>
       </c>
       <c r="G144" s="5">
+        <v>95</v>
+      </c>
+      <c r="H144" s="5">
         <v>63</v>
       </c>
-      <c r="H144" s="5">
+      <c r="I144" s="5">
         <v>85</v>
       </c>
-      <c r="I144" s="5">
+      <c r="J144" s="5">
         <v>59</v>
       </c>
-      <c r="J144" s="5">
+      <c r="K144" s="5">
         <v>85</v>
       </c>
-      <c r="K144" s="5">
+      <c r="L144" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M144" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2597993</v>
       </c>
@@ -6240,29 +7162,35 @@
       <c r="D145" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145" s="5">
         <v>73</v>
       </c>
-      <c r="F145" s="5">
+      <c r="G145" s="5">
         <v>77.5</v>
       </c>
-      <c r="G145" s="5">
+      <c r="H145" s="5">
         <v>66</v>
       </c>
-      <c r="H145" s="5">
-        <v>69</v>
-      </c>
       <c r="I145" s="5">
+        <v>69</v>
+      </c>
+      <c r="J145" s="5">
         <v>83</v>
       </c>
-      <c r="J145" s="5">
-        <v>70</v>
-      </c>
       <c r="K145" s="5">
+        <v>70</v>
+      </c>
+      <c r="L145" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M145" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2596496</v>
       </c>
@@ -6275,29 +7203,35 @@
       <c r="D146" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F146" s="5">
         <v>75</v>
       </c>
-      <c r="F146" s="5">
+      <c r="G146" s="5">
         <v>55</v>
       </c>
-      <c r="G146" s="5">
+      <c r="H146" s="5">
         <v>58</v>
       </c>
-      <c r="H146" s="5">
+      <c r="I146" s="5">
         <v>74</v>
       </c>
-      <c r="I146" s="5">
+      <c r="J146" s="5">
         <v>45</v>
       </c>
-      <c r="J146" s="5">
+      <c r="K146" s="5">
         <v>50</v>
       </c>
-      <c r="K146" s="5">
+      <c r="L146" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M146" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2594201</v>
       </c>
@@ -6310,29 +7244,35 @@
       <c r="D147" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F147" s="5">
         <v>82.5</v>
       </c>
-      <c r="F147" s="5">
+      <c r="G147" s="5">
         <v>85</v>
       </c>
-      <c r="G147" s="5">
-        <v>69</v>
-      </c>
       <c r="H147" s="5">
+        <v>69</v>
+      </c>
+      <c r="I147" s="5">
         <v>78</v>
       </c>
-      <c r="I147" s="5">
+      <c r="J147" s="5">
         <v>33</v>
       </c>
-      <c r="J147" s="5">
+      <c r="K147" s="5">
         <v>68</v>
       </c>
-      <c r="K147" s="5">
+      <c r="L147" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M147" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>2572915</v>
       </c>
@@ -6345,29 +7285,35 @@
       <c r="D148" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F148" s="5">
         <v>65</v>
       </c>
-      <c r="F148" s="5">
+      <c r="G148" s="5">
         <v>57.5</v>
       </c>
-      <c r="G148" s="5">
+      <c r="H148" s="5">
         <v>50</v>
       </c>
-      <c r="H148" s="5">
-        <v>69</v>
-      </c>
       <c r="I148" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J148" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K148" s="5">
+        <v>69</v>
+      </c>
+      <c r="L148" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M148" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>2540494</v>
       </c>
@@ -6380,29 +7326,35 @@
       <c r="D149" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F149" s="5">
         <v>100</v>
       </c>
-      <c r="F149" s="5">
+      <c r="G149" s="5">
         <v>77.5</v>
       </c>
-      <c r="G149" s="5">
+      <c r="H149" s="5">
         <v>62</v>
       </c>
-      <c r="H149" s="5">
+      <c r="I149" s="5">
         <v>74</v>
       </c>
-      <c r="I149" s="5">
+      <c r="J149" s="5">
         <v>53</v>
       </c>
-      <c r="J149" s="5">
+      <c r="K149" s="5">
         <v>48</v>
       </c>
-      <c r="K149" s="5">
+      <c r="L149" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M149" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>2597321</v>
       </c>
@@ -6415,29 +7367,35 @@
       <c r="D150" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F150" s="5">
         <v>95</v>
       </c>
-      <c r="F150" s="5">
+      <c r="G150" s="5">
         <v>82.5</v>
       </c>
-      <c r="G150" s="5">
+      <c r="H150" s="5">
         <v>67</v>
       </c>
-      <c r="H150" s="5">
+      <c r="I150" s="5">
         <v>74</v>
       </c>
-      <c r="I150" s="5">
+      <c r="J150" s="5">
         <v>67</v>
       </c>
-      <c r="J150" s="5">
-        <v>70</v>
-      </c>
       <c r="K150" s="5">
+        <v>70</v>
+      </c>
+      <c r="L150" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M150" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2594498</v>
       </c>
@@ -6450,29 +7408,35 @@
       <c r="D151" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F151" s="5">
         <v>90</v>
       </c>
-      <c r="F151" s="5">
+      <c r="G151" s="5">
         <v>87.5</v>
       </c>
-      <c r="G151" s="5">
-        <v>69</v>
-      </c>
       <c r="H151" s="5">
+        <v>69</v>
+      </c>
+      <c r="I151" s="5">
         <v>89</v>
       </c>
-      <c r="I151" s="5">
+      <c r="J151" s="5">
         <v>60</v>
       </c>
-      <c r="J151" s="5">
+      <c r="K151" s="5">
         <v>93</v>
       </c>
-      <c r="K151" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="5">
+        <v>70</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2599528</v>
       </c>
@@ -6485,29 +7449,35 @@
       <c r="D152" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E152" s="5">
-        <v>70</v>
+      <c r="E152" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F152" s="5">
         <v>70</v>
       </c>
       <c r="G152" s="5">
+        <v>70</v>
+      </c>
+      <c r="H152" s="5">
         <v>54</v>
       </c>
-      <c r="H152" s="5">
+      <c r="I152" s="5">
         <v>78</v>
       </c>
-      <c r="I152" s="5">
+      <c r="J152" s="5">
         <v>53</v>
       </c>
-      <c r="J152" s="5">
+      <c r="K152" s="5">
         <v>63</v>
       </c>
-      <c r="K152" s="5">
+      <c r="L152" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M152" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2599350</v>
       </c>
@@ -6520,29 +7490,35 @@
       <c r="D153" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F153" s="5">
         <v>60</v>
       </c>
-      <c r="F153" s="5">
+      <c r="G153" s="5">
         <v>67.5</v>
       </c>
-      <c r="G153" s="5">
+      <c r="H153" s="5">
         <v>50</v>
       </c>
-      <c r="H153" s="5">
+      <c r="I153" s="5">
         <v>65</v>
       </c>
-      <c r="I153" s="5">
+      <c r="J153" s="5">
         <v>57</v>
       </c>
-      <c r="J153" s="5">
+      <c r="K153" s="5">
         <v>64</v>
       </c>
-      <c r="K153" s="5">
+      <c r="L153" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M153" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2563758</v>
       </c>
@@ -6555,29 +7531,35 @@
       <c r="D154" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F154" s="5">
         <v>60</v>
       </c>
-      <c r="F154" s="5">
+      <c r="G154" s="5">
         <v>67.5</v>
       </c>
-      <c r="G154" s="5">
+      <c r="H154" s="5">
         <v>58</v>
       </c>
-      <c r="H154" s="5">
+      <c r="I154" s="5">
         <v>66</v>
       </c>
-      <c r="I154" s="5">
+      <c r="J154" s="5">
         <v>73</v>
       </c>
-      <c r="J154" s="5">
+      <c r="K154" s="5">
         <v>61</v>
       </c>
-      <c r="K154" s="5">
+      <c r="L154" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M154" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2594702</v>
       </c>
@@ -6590,29 +7572,35 @@
       <c r="D155" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F155" s="5">
         <v>100</v>
       </c>
-      <c r="F155" s="5">
+      <c r="G155" s="5">
         <v>95</v>
       </c>
-      <c r="G155" s="5">
+      <c r="H155" s="5">
         <v>82</v>
       </c>
-      <c r="H155" s="5">
+      <c r="I155" s="5">
         <v>89</v>
       </c>
-      <c r="I155" s="5">
+      <c r="J155" s="5">
         <v>84</v>
       </c>
-      <c r="J155" s="5">
+      <c r="K155" s="5">
         <v>96</v>
       </c>
-      <c r="K155" s="5">
+      <c r="L155" s="5">
         <v>94</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M155" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>2586492</v>
       </c>
@@ -6625,29 +7613,35 @@
       <c r="D156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E156" s="5">
-        <v>70</v>
+      <c r="E156" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F156" s="5">
+        <v>70</v>
+      </c>
+      <c r="G156" s="5">
         <v>60</v>
       </c>
-      <c r="G156" s="5">
+      <c r="H156" s="5">
         <v>61</v>
       </c>
-      <c r="H156" s="5">
+      <c r="I156" s="5">
         <v>68</v>
       </c>
-      <c r="I156" s="5">
+      <c r="J156" s="5">
         <v>75</v>
       </c>
-      <c r="J156" s="5">
-        <v>70</v>
-      </c>
       <c r="K156" s="5">
+        <v>70</v>
+      </c>
+      <c r="L156" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M156" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2584595</v>
       </c>
@@ -6660,29 +7654,35 @@
       <c r="D157" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F157" s="5">
         <v>87</v>
       </c>
-      <c r="F157" s="5">
-        <v>70</v>
-      </c>
       <c r="G157" s="5">
+        <v>70</v>
+      </c>
+      <c r="H157" s="5">
         <v>54</v>
       </c>
-      <c r="H157" s="5">
+      <c r="I157" s="5">
         <v>74</v>
       </c>
-      <c r="I157" s="5">
-        <v>69</v>
-      </c>
       <c r="J157" s="5">
+        <v>69</v>
+      </c>
+      <c r="K157" s="5">
         <v>74</v>
       </c>
-      <c r="K157" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="5">
+        <v>69</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2602335</v>
       </c>
@@ -6695,29 +7695,35 @@
       <c r="D158" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E158" s="5">
-        <v>77.5</v>
+      <c r="E158" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F158" s="5">
         <v>77.5</v>
       </c>
       <c r="G158" s="5">
+        <v>77.5</v>
+      </c>
+      <c r="H158" s="5">
         <v>65</v>
       </c>
-      <c r="H158" s="5">
+      <c r="I158" s="5">
         <v>66</v>
       </c>
-      <c r="I158" s="5">
+      <c r="J158" s="5">
         <v>48</v>
       </c>
-      <c r="J158" s="5">
+      <c r="K158" s="5">
         <v>66</v>
       </c>
-      <c r="K158" s="5">
+      <c r="L158" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M158" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2579125</v>
       </c>
@@ -6730,29 +7736,35 @@
       <c r="D159" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F159" s="5">
         <v>60</v>
       </c>
-      <c r="F159" s="5">
+      <c r="G159" s="5">
         <v>72.5</v>
       </c>
-      <c r="G159" s="5">
+      <c r="H159" s="5">
         <v>48</v>
       </c>
-      <c r="H159" s="5">
+      <c r="I159" s="5">
         <v>68</v>
       </c>
-      <c r="I159" s="5">
+      <c r="J159" s="5">
         <v>49</v>
       </c>
-      <c r="J159" s="5">
+      <c r="K159" s="5">
         <v>60</v>
       </c>
-      <c r="K159" s="5">
+      <c r="L159" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M159" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2588424</v>
       </c>
@@ -6765,29 +7777,35 @@
       <c r="D160" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F160" s="5">
         <v>87.5</v>
       </c>
-      <c r="F160" s="5">
+      <c r="G160" s="5">
         <v>52.5</v>
       </c>
-      <c r="G160" s="5">
+      <c r="H160" s="5">
         <v>60</v>
       </c>
-      <c r="H160" s="5">
+      <c r="I160" s="5">
         <v>61</v>
       </c>
-      <c r="I160" s="5">
+      <c r="J160" s="5">
         <v>60</v>
       </c>
-      <c r="J160" s="5">
+      <c r="K160" s="5">
         <v>64</v>
       </c>
-      <c r="K160" s="5">
+      <c r="L160" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M160" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>2553980</v>
       </c>
@@ -6800,29 +7818,35 @@
       <c r="D161" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F161" s="5">
         <v>80</v>
       </c>
-      <c r="F161" s="5">
-        <v>70</v>
-      </c>
       <c r="G161" s="5">
+        <v>70</v>
+      </c>
+      <c r="H161" s="5">
         <v>62</v>
       </c>
-      <c r="H161" s="5">
+      <c r="I161" s="5">
         <v>66</v>
       </c>
-      <c r="I161" s="5">
+      <c r="J161" s="5">
         <v>57</v>
       </c>
-      <c r="J161" s="5">
+      <c r="K161" s="5">
         <v>58</v>
       </c>
-      <c r="K161" s="5">
+      <c r="L161" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2595615</v>
       </c>
@@ -6835,29 +7859,35 @@
       <c r="D162" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F162" s="5">
         <v>67</v>
       </c>
-      <c r="F162" s="5">
+      <c r="G162" s="5">
         <v>57.5</v>
       </c>
-      <c r="G162" s="5">
+      <c r="H162" s="5">
         <v>58</v>
       </c>
-      <c r="H162" s="5">
+      <c r="I162" s="5">
         <v>64</v>
       </c>
-      <c r="I162" s="5">
+      <c r="J162" s="5">
         <v>67</v>
       </c>
-      <c r="J162" s="5">
+      <c r="K162" s="5">
         <v>63</v>
       </c>
-      <c r="K162" s="5">
+      <c r="L162" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2586731</v>
       </c>
@@ -6870,29 +7900,35 @@
       <c r="D163" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F163" s="5">
         <v>75</v>
       </c>
-      <c r="F163" s="5">
+      <c r="G163" s="5">
         <v>77.5</v>
       </c>
-      <c r="G163" s="5">
+      <c r="H163" s="5">
         <v>58</v>
       </c>
-      <c r="H163" s="5">
+      <c r="I163" s="5">
         <v>85</v>
       </c>
-      <c r="I163" s="5">
+      <c r="J163" s="5">
         <v>48</v>
       </c>
-      <c r="J163" s="5">
+      <c r="K163" s="5">
         <v>64</v>
       </c>
-      <c r="K163" s="5">
+      <c r="L163" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>2474246</v>
       </c>
@@ -6905,29 +7941,35 @@
       <c r="D164" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F164" s="5">
         <v>95</v>
       </c>
-      <c r="F164" s="5">
+      <c r="G164" s="5">
         <v>75</v>
       </c>
-      <c r="G164" s="5">
+      <c r="H164" s="5">
         <v>61</v>
       </c>
-      <c r="H164" s="5">
+      <c r="I164" s="5">
         <v>66</v>
       </c>
-      <c r="I164" s="5">
+      <c r="J164" s="5">
         <v>52</v>
       </c>
-      <c r="J164" s="5">
+      <c r="K164" s="5">
         <v>48</v>
       </c>
-      <c r="K164" s="5">
+      <c r="L164" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M164" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2553976</v>
       </c>
@@ -6940,29 +7982,35 @@
       <c r="D165" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E165" s="5">
-        <v>65</v>
+      <c r="E165" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F165" s="5">
         <v>65</v>
       </c>
       <c r="G165" s="5">
+        <v>65</v>
+      </c>
+      <c r="H165" s="5">
         <v>56</v>
       </c>
-      <c r="H165" s="5">
+      <c r="I165" s="5">
         <v>65</v>
       </c>
-      <c r="I165" s="5">
+      <c r="J165" s="5">
         <v>72</v>
       </c>
-      <c r="J165" s="5">
+      <c r="K165" s="5">
         <v>66</v>
       </c>
-      <c r="K165" s="5">
+      <c r="L165" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M165" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>2554000</v>
       </c>
@@ -6975,29 +8023,35 @@
       <c r="D166" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F166" s="5">
         <v>75</v>
       </c>
-      <c r="F166" s="5">
+      <c r="G166" s="5">
         <v>58</v>
       </c>
-      <c r="G166" s="5">
+      <c r="H166" s="5">
         <v>63</v>
       </c>
-      <c r="H166" s="5">
+      <c r="I166" s="5">
         <v>68</v>
       </c>
-      <c r="I166" s="5">
+      <c r="J166" s="5">
         <v>53</v>
       </c>
-      <c r="J166" s="5">
+      <c r="K166" s="5">
         <v>50</v>
       </c>
-      <c r="K166" s="5">
+      <c r="L166" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M166" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>2595019</v>
       </c>
@@ -7010,29 +8064,35 @@
       <c r="D167" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F167" s="5">
         <v>87</v>
       </c>
-      <c r="F167" s="5">
+      <c r="G167" s="5">
         <v>67.5</v>
       </c>
-      <c r="G167" s="5">
+      <c r="H167" s="5">
         <v>61</v>
       </c>
-      <c r="H167" s="5">
-        <v>69</v>
-      </c>
       <c r="I167" s="5">
+        <v>69</v>
+      </c>
+      <c r="J167" s="5">
         <v>60</v>
       </c>
-      <c r="J167" s="5">
+      <c r="K167" s="5">
         <v>61</v>
       </c>
-      <c r="K167" s="5">
+      <c r="L167" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M167" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>2519419</v>
       </c>
@@ -7045,29 +8105,35 @@
       <c r="D168" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F168" s="5">
         <v>72.5</v>
       </c>
-      <c r="F168" s="5">
+      <c r="G168" s="5">
         <v>67.5</v>
       </c>
-      <c r="G168" s="5">
+      <c r="H168" s="5">
         <v>60</v>
       </c>
-      <c r="H168" s="5">
-        <v>69</v>
-      </c>
       <c r="I168" s="5">
+        <v>69</v>
+      </c>
+      <c r="J168" s="5">
         <v>89</v>
       </c>
-      <c r="J168" s="5">
+      <c r="K168" s="5">
         <v>74</v>
       </c>
-      <c r="K168" s="5">
+      <c r="L168" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M168" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2541215</v>
       </c>
@@ -7080,29 +8146,35 @@
       <c r="D169" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E169" s="5">
-        <v>60</v>
+      <c r="E169" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F169" s="5">
         <v>60</v>
       </c>
       <c r="G169" s="5">
+        <v>60</v>
+      </c>
+      <c r="H169" s="5">
         <v>67</v>
       </c>
-      <c r="H169" s="5">
+      <c r="I169" s="5">
         <v>68</v>
       </c>
-      <c r="I169" s="5">
+      <c r="J169" s="5">
         <v>44</v>
-      </c>
-      <c r="J169" s="5">
-        <v>60</v>
       </c>
       <c r="K169" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="5">
+        <v>60</v>
+      </c>
+      <c r="M169" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>2633231</v>
       </c>
@@ -7115,29 +8187,35 @@
       <c r="D170" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F170" s="5">
         <v>95</v>
       </c>
-      <c r="F170" s="5">
+      <c r="G170" s="5">
         <v>88</v>
       </c>
-      <c r="G170" s="5">
+      <c r="H170" s="5">
         <v>85</v>
       </c>
-      <c r="H170" s="5">
+      <c r="I170" s="5">
         <v>98</v>
       </c>
-      <c r="I170" s="5">
+      <c r="J170" s="5">
         <v>85</v>
       </c>
-      <c r="J170" s="5">
+      <c r="K170" s="5">
         <v>96</v>
       </c>
-      <c r="K170" s="5">
+      <c r="L170" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M170" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>2607039</v>
       </c>
@@ -7150,29 +8228,35 @@
       <c r="D171" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F171" s="5">
         <v>95</v>
       </c>
-      <c r="F171" s="5">
+      <c r="G171" s="5">
         <v>98</v>
       </c>
-      <c r="G171" s="5">
+      <c r="H171" s="5">
         <v>73</v>
       </c>
-      <c r="H171" s="5">
+      <c r="I171" s="5">
         <v>98</v>
       </c>
-      <c r="I171" s="5">
+      <c r="J171" s="5">
         <v>82</v>
       </c>
-      <c r="J171" s="5">
+      <c r="K171" s="5">
         <v>96</v>
       </c>
-      <c r="K171" s="5">
+      <c r="L171" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M171" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>2589578</v>
       </c>
@@ -7185,29 +8269,35 @@
       <c r="D172" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F172" s="5">
         <v>80</v>
       </c>
-      <c r="F172" s="5">
+      <c r="G172" s="5">
         <v>73</v>
       </c>
-      <c r="G172" s="5">
+      <c r="H172" s="5">
         <v>76</v>
       </c>
-      <c r="H172" s="5">
+      <c r="I172" s="5">
         <v>89</v>
       </c>
-      <c r="I172" s="5">
+      <c r="J172" s="5">
         <v>65</v>
       </c>
-      <c r="J172" s="5">
+      <c r="K172" s="5">
         <v>91</v>
       </c>
-      <c r="K172" s="5">
+      <c r="L172" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M172" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>2618250</v>
       </c>
@@ -7220,37 +8310,43 @@
       <c r="D173" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F173" s="5">
         <v>83</v>
-      </c>
-      <c r="F173" s="5">
-        <v>50</v>
       </c>
       <c r="G173" s="5">
         <v>50</v>
       </c>
       <c r="H173" s="5">
+        <v>50</v>
+      </c>
+      <c r="I173" s="5">
         <v>66</v>
       </c>
-      <c r="I173" s="5">
+      <c r="J173" s="5">
         <v>73</v>
       </c>
-      <c r="J173" s="5">
+      <c r="K173" s="5">
         <v>65</v>
       </c>
-      <c r="K173" s="5">
-        <v>70</v>
+      <c r="L173" s="5">
+        <v>70</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="E2:K23">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="F2:L23">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:K57">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F24:L57">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/all_student_data.xlsx
+++ b/all_student_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\Documents\0_coding\20-21 results analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC6795E-79EB-4D42-8C99-61F162D6A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91260E24-C31C-4ACE-B1D6-4329A7772865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49026F05-F964-4820-BC77-407A59B9FFBE}"/>
   </bookViews>
@@ -47,23 +47,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={013A6A90-8A1B-4594-B9AB-BFD543F82183}</author>
-    <author>tc={428A85FA-2DA0-4638-8446-0C7E008B51D5}</author>
-    <author>tc={84FBE623-0364-4D53-9214-61300D252665}</author>
-    <author>tc={9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}</author>
     <author>tc={ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}</author>
     <author>tc={1EF3FF90-778B-4561-B8D3-8031DEA67788}</author>
+    <author>tc={84FBE623-0364-4D53-9214-61300D252665}</author>
+    <author>tc={428A85FA-2DA0-4638-8446-0C7E008B51D5}</author>
+    <author>tc={9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}</author>
+    <author>tc={013A6A90-8A1B-4594-B9AB-BFD543F82183}</author>
   </authors>
   <commentList>
-    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    significantly under word count</t>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="1" shapeId="0" xr:uid="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +63,15 @@
     10% penalty for no first draft</t>
       </text>
     </comment>
-    <comment ref="L16" authorId="2" shapeId="0" xr:uid="{84FBE623-0364-4D53-9214-61300D252665}">
+    <comment ref="L14" authorId="1" shapeId="0" xr:uid="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    10% penalty for no first draft</t>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="2" shapeId="0" xr:uid="{84FBE623-0364-4D53-9214-61300D252665}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,15 @@
     no submission</t>
       </text>
     </comment>
-    <comment ref="J18" authorId="3" shapeId="0" xr:uid="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
+    <comment ref="L19" authorId="3" shapeId="0" xr:uid="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    10% penalty for no first draft</t>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="4" shapeId="0" xr:uid="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,20 +95,12 @@
     submitted over 24 hours after deadline</t>
       </text>
     </comment>
-    <comment ref="L21" authorId="4" shapeId="0" xr:uid="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
+    <comment ref="L22" authorId="5" shapeId="0" xr:uid="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    10% penalty for no first draft</t>
-      </text>
-    </comment>
-    <comment ref="L22" authorId="5" shapeId="0" xr:uid="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    10% penalty for no first draft</t>
+    significantly under word count</t>
       </text>
     </comment>
   </commentList>
@@ -788,15 +788,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{48085687-6A69-4C36-A01F-A01DF4644548}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -810,16 +802,12 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -863,6 +851,30 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -885,19 +897,22 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{610BA0F4-6B92-46A8-A35C-286D24200840}" name="all_data" displayName="all_data" ref="A1:M173" totalsRowShown="0">
   <autoFilter ref="A1:M173" xr:uid="{0DDD6615-E61E-4F46-BA5B-AD720B0E3720}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:M57">
+    <sortCondition ref="A1:A173"/>
+  </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1672A6F0-4449-4956-88B8-CF9365C26E58}" name="Student ID" dataDxfId="14"/>
-    <tableColumn id="28" xr3:uid="{A4DC134E-DDB8-4B25-8ABB-C90A2348B0E6}" name="Full Name" dataDxfId="13"/>
-    <tableColumn id="34" xr3:uid="{2CE466DA-00CC-4163-B93A-309A04B84A05}" name="programme" dataDxfId="12"/>
-    <tableColumn id="23" xr3:uid="{1F3BD03E-D116-4CCD-A05F-534C7D9D3D41}" name="cohort" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{87537886-42AA-4AC0-830C-D3130592DB19}" name="reg_group" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{084D6074-E1C6-4D9A-9A6A-A62D86FB12D0}" name="EX1 Listening" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{47B67A35-1051-40EF-B0B3-47D504058981}" name="EX3 Reading" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{192D969F-7102-49B5-8951-6366C6AC26A1}" name="EX3 Writing" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{CAA54B9B-6675-4B34-890E-3516B1C22A81}" name="EX2 Speaking" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{ED7073C4-F484-4FCD-BF17-1A23043A6B1F}" name="CW1" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{C225E16D-B279-4773-A4BC-A6F46E614215}" name="CW2" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{1EFCDFE9-EF74-46B7-888A-31C7DB1632F6}" name="CW3" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1672A6F0-4449-4956-88B8-CF9365C26E58}" name="Student ID" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{A4DC134E-DDB8-4B25-8ABB-C90A2348B0E6}" name="Full Name" dataDxfId="12"/>
+    <tableColumn id="34" xr3:uid="{2CE466DA-00CC-4163-B93A-309A04B84A05}" name="programme" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{1F3BD03E-D116-4CCD-A05F-534C7D9D3D41}" name="cohort" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{87537886-42AA-4AC0-830C-D3130592DB19}" name="reg_group" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{084D6074-E1C6-4D9A-9A6A-A62D86FB12D0}" name="EX1 Listening" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{47B67A35-1051-40EF-B0B3-47D504058981}" name="EX3 Reading" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{192D969F-7102-49B5-8951-6366C6AC26A1}" name="EX3 Writing" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{CAA54B9B-6675-4B34-890E-3516B1C22A81}" name="EX2 Speaking" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{ED7073C4-F484-4FCD-BF17-1A23043A6B1F}" name="CW1" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{C225E16D-B279-4773-A4BC-A6F46E614215}" name="CW2" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{1EFCDFE9-EF74-46B7-888A-31C7DB1632F6}" name="CW3" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{CD71F434-B884-436B-9994-1F08879D6E54}" name="status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1201,23 +1216,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L10" dT="2021-08-17T08:52:00.56" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
-    <text>significantly under word count</text>
-  </threadedComment>
-  <threadedComment ref="L15" dT="2021-08-17T10:01:47.94" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
+  <threadedComment ref="L8" dT="2021-08-17T10:02:13.19" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
     <text>10% penalty for no first draft</text>
   </threadedComment>
-  <threadedComment ref="L16" dT="2021-08-17T08:52:13.76" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{84FBE623-0364-4D53-9214-61300D252665}">
+  <threadedComment ref="L14" dT="2021-08-17T10:02:23.17" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
+    <text>10% penalty for no first draft</text>
+  </threadedComment>
+  <threadedComment ref="L18" dT="2021-08-17T08:52:13.76" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{84FBE623-0364-4D53-9214-61300D252665}">
     <text>no submission</text>
   </threadedComment>
-  <threadedComment ref="J18" dT="2021-07-16T13:11:43.07" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
+  <threadedComment ref="L19" dT="2021-08-17T10:01:47.94" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{428A85FA-2DA0-4638-8446-0C7E008B51D5}">
+    <text>10% penalty for no first draft</text>
+  </threadedComment>
+  <threadedComment ref="J20" dT="2021-07-16T13:11:43.07" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{9369A97A-5D3A-4D3D-94AE-C0E528AC75D4}">
     <text>submitted over 24 hours after deadline</text>
   </threadedComment>
-  <threadedComment ref="L21" dT="2021-08-17T10:02:13.19" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{ED8F3C04-AB5D-4EC4-BF64-E6EF20957380}">
-    <text>10% penalty for no first draft</text>
-  </threadedComment>
-  <threadedComment ref="L22" dT="2021-08-17T10:02:23.17" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{1EF3FF90-778B-4561-B8D3-8031DEA67788}">
-    <text>10% penalty for no first draft</text>
+  <threadedComment ref="L22" dT="2021-08-17T08:52:00.56" personId="{7D8D6C3C-8979-4213-A908-0DA0F3FED0A5}" id="{013A6A90-8A1B-4594-B9AB-BFD543F82183}">
+    <text>significantly under word count</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1226,9 +1241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8382BAF0-9ECD-437E-8B2E-B75C7E4CBE5A}">
   <dimension ref="A1:M173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,10 +1303,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2594410</v>
+        <v>2344128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -1303,25 +1318,25 @@
         <v>201</v>
       </c>
       <c r="F2" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
         <v>73</v>
       </c>
       <c r="H2" s="2">
-        <v>85</v>
-      </c>
-      <c r="I2" s="2">
+        <v>62</v>
+      </c>
+      <c r="I2">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2">
         <v>61</v>
-      </c>
-      <c r="J2" s="2">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2">
-        <v>64</v>
-      </c>
-      <c r="L2" s="2">
-        <v>60</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>202</v>
@@ -1329,10 +1344,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2599517</v>
+        <v>2426234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
@@ -1344,25 +1359,25 @@
         <v>201</v>
       </c>
       <c r="F3" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2">
+        <v>70</v>
+      </c>
+      <c r="I3">
         <v>60</v>
       </c>
-      <c r="I3">
-        <v>69</v>
-      </c>
       <c r="J3" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>202</v>
@@ -1370,10 +1385,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2344128</v>
+        <v>2485579</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -1385,25 +1400,25 @@
         <v>201</v>
       </c>
       <c r="F4" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="K4" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>202</v>
@@ -1411,10 +1426,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2626268</v>
+        <v>2517600</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -1423,28 +1438,28 @@
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5" s="2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" s="2">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2">
         <v>62</v>
-      </c>
-      <c r="I5">
-        <v>64</v>
-      </c>
-      <c r="J5" s="2">
-        <v>84</v>
-      </c>
-      <c r="K5" s="2">
-        <v>68</v>
-      </c>
-      <c r="L5" s="2">
-        <v>75</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>202</v>
@@ -1452,10 +1467,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2601927</v>
+        <v>2518173</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>34</v>
@@ -1464,28 +1479,28 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I6">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2">
+        <v>85</v>
+      </c>
+      <c r="K6" s="2">
         <v>64</v>
       </c>
-      <c r="K6" s="2">
-        <v>60</v>
-      </c>
       <c r="L6" s="2">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>202</v>
@@ -1493,10 +1508,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2624906</v>
+        <v>2524474</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
@@ -1505,28 +1520,28 @@
         <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L7" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>202</v>
@@ -1534,10 +1549,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2553961</v>
+        <v>2534306</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
@@ -1546,39 +1561,39 @@
         <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F8" s="2">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2">
         <v>60</v>
       </c>
       <c r="L8" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2584455</v>
+        <v>2553961</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
@@ -1587,28 +1602,28 @@
         <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J9" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>202</v>
@@ -1616,10 +1631,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2625034</v>
+        <v>2565927</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
@@ -1628,28 +1643,28 @@
         <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F10" s="2">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G10" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J10" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>202</v>
@@ -1681,7 +1696,7 @@
         <v>85</v>
       </c>
       <c r="I11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J11" s="2">
         <v>65</v>
@@ -1698,10 +1713,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2485579</v>
+        <v>2584455</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
@@ -1713,25 +1728,25 @@
         <v>201</v>
       </c>
       <c r="F12" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2">
+        <v>63</v>
+      </c>
+      <c r="I12">
         <v>68</v>
       </c>
-      <c r="H12" s="2">
-        <v>50</v>
-      </c>
-      <c r="I12">
-        <v>58</v>
-      </c>
       <c r="J12" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L12" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>202</v>
@@ -1739,10 +1754,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2426234</v>
+        <v>2592457</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
@@ -1754,25 +1769,25 @@
         <v>201</v>
       </c>
       <c r="F13" s="2">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L13" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>202</v>
@@ -1780,10 +1795,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2592457</v>
+        <v>2594329</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
@@ -1795,25 +1810,25 @@
         <v>201</v>
       </c>
       <c r="F14" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G14" s="2">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I14">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J14" s="2">
+        <v>69</v>
+      </c>
+      <c r="K14" s="2">
         <v>78</v>
       </c>
-      <c r="K14" s="2">
-        <v>53</v>
-      </c>
       <c r="L14" s="2">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>202</v>
@@ -1821,10 +1836,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2608909</v>
+        <v>2594410</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
@@ -1836,25 +1851,25 @@
         <v>201</v>
       </c>
       <c r="F15" s="2">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H15" s="2">
+        <v>85</v>
+      </c>
+      <c r="I15" s="2">
         <v>61</v>
       </c>
-      <c r="I15">
-        <v>63</v>
-      </c>
       <c r="J15" s="2">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>202</v>
@@ -1862,10 +1877,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2602045</v>
+        <v>2599517</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -1874,28 +1889,28 @@
         <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F16" s="2">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I16">
+        <v>69</v>
+      </c>
+      <c r="J16" s="2">
+        <v>37</v>
+      </c>
+      <c r="K16" s="2">
+        <v>61</v>
+      </c>
+      <c r="L16" s="2">
         <v>66</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2">
-        <v>48</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>202</v>
@@ -1903,10 +1918,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2518173</v>
+        <v>2601927</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
@@ -1915,28 +1930,28 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I17">
+        <v>63</v>
+      </c>
+      <c r="J17" s="2">
         <v>64</v>
       </c>
-      <c r="J17" s="2">
-        <v>85</v>
-      </c>
       <c r="K17" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L17" s="2">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>202</v>
@@ -1944,10 +1959,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2609158</v>
+        <v>2602045</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -1956,28 +1971,28 @@
         <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F18" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H18" s="2">
+        <v>56</v>
+      </c>
+      <c r="I18">
         <v>66</v>
       </c>
-      <c r="I18">
-        <v>70</v>
-      </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K18" s="2">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="L18" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>202</v>
@@ -1985,10 +2000,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2517600</v>
+        <v>2608909</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>34</v>
@@ -1997,28 +2012,28 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F19" s="2">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I19">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K19" s="2">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L19" s="2">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>202</v>
@@ -2026,10 +2041,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2524474</v>
+        <v>2609158</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>34</v>
@@ -2038,28 +2053,28 @@
         <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F20" s="2">
+        <v>75</v>
+      </c>
+      <c r="G20" s="2">
         <v>63</v>
       </c>
-      <c r="G20" s="2">
-        <v>68</v>
-      </c>
       <c r="H20" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I20">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J20" s="2">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K20" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L20" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>202</v>
@@ -2067,10 +2082,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2534306</v>
+        <v>2624906</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>34</v>
@@ -2082,36 +2097,36 @@
         <v>201</v>
       </c>
       <c r="F21" s="2">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G21" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K21" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2594329</v>
+        <v>2625034</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -2120,28 +2135,28 @@
         <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F22" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2">
+        <v>58</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22" s="2">
         <v>68</v>
       </c>
-      <c r="H22" s="2">
-        <v>79</v>
-      </c>
-      <c r="I22">
-        <v>70</v>
-      </c>
-      <c r="J22" s="2">
-        <v>69</v>
-      </c>
       <c r="K22" s="2">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="L22" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>202</v>
@@ -2149,10 +2164,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2565927</v>
+        <v>2626268</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>34</v>
@@ -2164,25 +2179,25 @@
         <v>201</v>
       </c>
       <c r="F23" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H23" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I23">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="K23" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>202</v>
@@ -2190,10 +2205,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>2618023</v>
+        <v>2525000</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>69</v>
@@ -2205,25 +2220,25 @@
         <v>198</v>
       </c>
       <c r="F24" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H24" s="2">
-        <v>56</v>
-      </c>
-      <c r="I24" s="2">
+        <v>48</v>
+      </c>
+      <c r="I24">
         <v>70</v>
       </c>
       <c r="J24" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K24" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L24" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>202</v>
@@ -2231,10 +2246,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>2612517</v>
+        <v>2533319</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>69</v>
@@ -2243,28 +2258,28 @@
         <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F25" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H25" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2">
         <v>44</v>
       </c>
       <c r="K25" s="2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L25" s="2">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>203</v>
@@ -2272,10 +2287,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>2613537</v>
+        <v>2541752</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>69</v>
@@ -2284,28 +2299,28 @@
         <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" s="2">
+        <v>73</v>
+      </c>
+      <c r="H26" s="2">
+        <v>62</v>
+      </c>
+      <c r="I26">
         <v>63</v>
       </c>
-      <c r="G26" s="2">
-        <v>50</v>
-      </c>
-      <c r="H26" s="2">
-        <v>44</v>
-      </c>
-      <c r="I26">
-        <v>65</v>
-      </c>
       <c r="J26" s="2">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="K26" s="2">
         <v>65</v>
       </c>
       <c r="L26" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>202</v>
@@ -2313,10 +2328,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2533319</v>
+        <v>2560089</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>69</v>
@@ -2325,39 +2340,39 @@
         <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27" s="2">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2">
         <v>53</v>
       </c>
       <c r="H27" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I27">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J27" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K27" s="2">
         <v>54</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>2616856</v>
+        <v>2570588</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>69</v>
@@ -2366,28 +2381,28 @@
         <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F28" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G28" s="2">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I28">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J28" s="2">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K28" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L28" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>202</v>
@@ -2395,10 +2410,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2597383</v>
+        <v>2584502</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>69</v>
@@ -2407,39 +2422,39 @@
         <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F29" s="2">
+        <v>58</v>
+      </c>
+      <c r="G29" s="2">
         <v>73</v>
       </c>
-      <c r="G29" s="2">
-        <v>38</v>
-      </c>
       <c r="H29" s="2">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I29">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L29" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2618059</v>
+        <v>2584600</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>69</v>
@@ -2448,39 +2463,39 @@
         <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F30" s="2">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G30" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H30" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I30">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J30" s="2">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L30" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>2602413</v>
+        <v>2592160</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>69</v>
@@ -2489,39 +2504,39 @@
         <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F31" s="2">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H31" s="2">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I31">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J31" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="L31" s="2">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>2541752</v>
+        <v>2595595</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>69</v>
@@ -2530,28 +2545,28 @@
         <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F32" s="2">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G32" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H32" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K32" s="2">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L32" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>202</v>
@@ -2559,10 +2574,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2525000</v>
+        <v>2595599</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>69</v>
@@ -2571,28 +2586,28 @@
         <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="2">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H33" s="2">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="I33">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J33" s="2">
         <v>62</v>
       </c>
       <c r="K33" s="2">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L33" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>202</v>
@@ -2600,10 +2615,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>2599342</v>
+        <v>2596991</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>69</v>
@@ -2612,25 +2627,25 @@
         <v>33</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F34" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J34" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K34" s="2">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L34" s="2">
         <v>70</v>
@@ -2641,10 +2656,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>2612461</v>
+        <v>2597383</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>69</v>
@@ -2653,28 +2668,28 @@
         <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F35" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G35" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H35" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I35">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J35" s="2">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L35" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>203</v>
@@ -2682,10 +2697,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2619654</v>
+        <v>2598461</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>69</v>
@@ -2694,28 +2709,28 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" s="2">
         <v>80</v>
       </c>
       <c r="G36" s="2">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="H36" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="I36">
         <v>78</v>
       </c>
       <c r="J36" s="2">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="K36" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L36" s="2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>202</v>
@@ -2764,10 +2779,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2560089</v>
+        <v>2599342</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>69</v>
@@ -2776,25 +2791,25 @@
         <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F38" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G38" s="2">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I38">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J38" s="2">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="K38" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L38" s="2">
         <v>70</v>
@@ -2805,10 +2820,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2592160</v>
+        <v>2599950</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>69</v>
@@ -2817,39 +2832,39 @@
         <v>33</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F39" s="2">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G39" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H39" s="2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I39">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="K39" s="2">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>2584600</v>
+        <v>2601562</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>69</v>
@@ -2861,25 +2876,25 @@
         <v>197</v>
       </c>
       <c r="F40" s="2">
+        <v>95</v>
+      </c>
+      <c r="G40" s="2">
+        <v>90</v>
+      </c>
+      <c r="H40" s="2">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>85</v>
+      </c>
+      <c r="J40" s="2">
         <v>63</v>
       </c>
-      <c r="G40" s="2">
-        <v>58</v>
-      </c>
-      <c r="H40" s="2">
-        <v>64</v>
-      </c>
-      <c r="I40">
-        <v>89</v>
-      </c>
-      <c r="J40" s="2">
-        <v>35</v>
-      </c>
       <c r="K40" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L40" s="2">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>202</v>
@@ -2887,10 +2902,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>2584502</v>
+        <v>2602055</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>69</v>
@@ -2899,28 +2914,28 @@
         <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F41" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G41" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H41" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I41">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J41" s="2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K41" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L41" s="2">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>202</v>
@@ -2928,10 +2943,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>2599950</v>
+        <v>2602413</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>69</v>
@@ -2943,25 +2958,25 @@
         <v>197</v>
       </c>
       <c r="F42" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G42" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42" s="2">
         <v>68</v>
       </c>
-      <c r="J42" s="2">
-        <v>58</v>
-      </c>
       <c r="K42" s="2">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="L42" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>202</v>
@@ -2969,10 +2984,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2570588</v>
+        <v>2604240</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>69</v>
@@ -2984,25 +2999,25 @@
         <v>198</v>
       </c>
       <c r="F43" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G43" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I43">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J43" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K43" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L43" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>202</v>
@@ -3010,10 +3025,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>2595595</v>
+        <v>2606146</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>69</v>
@@ -3025,22 +3040,22 @@
         <v>198</v>
       </c>
       <c r="F44" s="2">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G44" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H44" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J44" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K44" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L44" s="2">
         <v>58</v>
@@ -3051,10 +3066,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>2598461</v>
+        <v>2606430</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>69</v>
@@ -3066,25 +3081,25 @@
         <v>197</v>
       </c>
       <c r="F45" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G45" s="2">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="H45" s="2">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I45">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J45" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K45" s="2">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L45" s="2">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>202</v>
@@ -3092,10 +3107,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2596991</v>
+        <v>2606944</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>69</v>
@@ -3107,36 +3122,36 @@
         <v>197</v>
       </c>
       <c r="F46" s="2">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G46" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H46" s="2">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I46">
         <v>69</v>
       </c>
       <c r="J46" s="2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>2606146</v>
+        <v>2611819</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>69</v>
@@ -3145,28 +3160,28 @@
         <v>33</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F47" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G47" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H47" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I47">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="J47" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K47" s="2">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="L47" s="2">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>202</v>
@@ -3174,10 +3189,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>2606430</v>
+        <v>2612461</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>69</v>
@@ -3186,39 +3201,39 @@
         <v>33</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F48" s="2">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G48" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H48" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I48">
         <v>70</v>
       </c>
       <c r="J48" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K48" s="2">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L48" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>2604240</v>
+        <v>2612517</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>69</v>
@@ -3227,39 +3242,39 @@
         <v>33</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F49" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="H49" s="2">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I49">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J49" s="2">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="K49" s="2">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="L49" s="2">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>2625132</v>
+        <v>2613037</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>69</v>
@@ -3268,25 +3283,25 @@
         <v>33</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G50" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H50" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="I50">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J50" s="2">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="K50" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L50" s="2">
         <v>65</v>
@@ -3297,10 +3312,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>2602055</v>
+        <v>2613359</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>69</v>
@@ -3309,28 +3324,28 @@
         <v>33</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G51" s="2">
+        <v>70</v>
+      </c>
+      <c r="H51" s="2">
         <v>68</v>
       </c>
-      <c r="H51" s="2">
-        <v>61</v>
-      </c>
       <c r="I51">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51" s="2">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K51" s="2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L51" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>202</v>
@@ -3338,10 +3353,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>2611819</v>
+        <v>2613537</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>69</v>
@@ -3350,28 +3365,28 @@
         <v>33</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F52" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G52" s="2">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="H52" s="2">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I52">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="J52" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K52" s="2">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L52" s="2">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>202</v>
@@ -3379,10 +3394,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>2613037</v>
+        <v>2616856</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>69</v>
@@ -3391,28 +3406,28 @@
         <v>33</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F53" s="2">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="G53" s="2">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="H53" s="2">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I53">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="J53" s="2">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K53" s="2">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="L53" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>202</v>
@@ -3420,10 +3435,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>2606944</v>
+        <v>2618023</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>69</v>
@@ -3432,39 +3447,39 @@
         <v>33</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G54" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H54" s="2">
-        <v>65</v>
-      </c>
-      <c r="I54">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="I54" s="2">
+        <v>70</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K54" s="2">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>2595599</v>
+        <v>2618059</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>69</v>
@@ -3473,39 +3488,39 @@
         <v>33</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F55" s="2">
+        <v>83</v>
+      </c>
+      <c r="G55" s="2">
+        <v>55</v>
+      </c>
+      <c r="H55" s="2">
+        <v>52</v>
+      </c>
+      <c r="I55">
         <v>93</v>
       </c>
-      <c r="G55" s="2">
-        <v>75</v>
-      </c>
-      <c r="H55" s="2">
-        <v>73</v>
-      </c>
-      <c r="I55">
-        <v>76</v>
-      </c>
       <c r="J55" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="K55" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L55" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>2601562</v>
+        <v>2619654</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>69</v>
@@ -3514,28 +3529,28 @@
         <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F56" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G56" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H56" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I56">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J56" s="2">
+        <v>89</v>
+      </c>
+      <c r="K56" s="2">
+        <v>53</v>
+      </c>
+      <c r="L56" s="2">
         <v>63</v>
-      </c>
-      <c r="K56" s="2">
-        <v>76</v>
-      </c>
-      <c r="L56" s="2">
-        <v>70</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>202</v>
@@ -3543,10 +3558,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>2613359</v>
+        <v>2625132</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>69</v>
@@ -3555,28 +3570,28 @@
         <v>33</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F57" s="2">
+        <v>83</v>
+      </c>
+      <c r="G57" s="2">
+        <v>88</v>
+      </c>
+      <c r="H57" s="2">
+        <v>92</v>
+      </c>
+      <c r="I57">
+        <v>76</v>
+      </c>
+      <c r="J57" s="2">
+        <v>62</v>
+      </c>
+      <c r="K57" s="2">
+        <v>78</v>
+      </c>
+      <c r="L57" s="2">
         <v>65</v>
-      </c>
-      <c r="G57" s="2">
-        <v>70</v>
-      </c>
-      <c r="H57" s="2">
-        <v>68</v>
-      </c>
-      <c r="I57">
-        <v>68</v>
-      </c>
-      <c r="J57" s="2">
-        <v>68</v>
-      </c>
-      <c r="K57" s="2">
-        <v>74</v>
-      </c>
-      <c r="L57" s="2">
-        <v>69</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>202</v>
@@ -8341,12 +8356,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="F2:L23">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:L57">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/all_student_data.xlsx
+++ b/all_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\Documents\0_coding\20-21 results analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91260E24-C31C-4ACE-B1D6-4329A7772865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54FD488-28E7-45A7-909F-7A1163BE429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49026F05-F964-4820-BC77-407A59B9FFBE}"/>
   </bookViews>
@@ -788,19 +788,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{48085687-6A69-4C36-A01F-A01DF4644548}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <protection locked="0" hidden="0"/>
@@ -901,19 +889,19 @@
     <sortCondition ref="A1:A173"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1672A6F0-4449-4956-88B8-CF9365C26E58}" name="Student ID" dataDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{A4DC134E-DDB8-4B25-8ABB-C90A2348B0E6}" name="Full Name" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{2CE466DA-00CC-4163-B93A-309A04B84A05}" name="programme" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{1F3BD03E-D116-4CCD-A05F-534C7D9D3D41}" name="cohort" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{87537886-42AA-4AC0-830C-D3130592DB19}" name="reg_group" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{084D6074-E1C6-4D9A-9A6A-A62D86FB12D0}" name="EX1 Listening" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{47B67A35-1051-40EF-B0B3-47D504058981}" name="EX3 Reading" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{192D969F-7102-49B5-8951-6366C6AC26A1}" name="EX3 Writing" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{CAA54B9B-6675-4B34-890E-3516B1C22A81}" name="EX2 Speaking" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{ED7073C4-F484-4FCD-BF17-1A23043A6B1F}" name="CW1" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{C225E16D-B279-4773-A4BC-A6F46E614215}" name="CW2" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{1EFCDFE9-EF74-46B7-888A-31C7DB1632F6}" name="CW3" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CD71F434-B884-436B-9994-1F08879D6E54}" name="status" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1672A6F0-4449-4956-88B8-CF9365C26E58}" name="Student ID" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{A4DC134E-DDB8-4B25-8ABB-C90A2348B0E6}" name="Full Name" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{2CE466DA-00CC-4163-B93A-309A04B84A05}" name="programme" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{1F3BD03E-D116-4CCD-A05F-534C7D9D3D41}" name="cohort" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{87537886-42AA-4AC0-830C-D3130592DB19}" name="reg_group" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{084D6074-E1C6-4D9A-9A6A-A62D86FB12D0}" name="EX1 Listening" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{47B67A35-1051-40EF-B0B3-47D504058981}" name="EX3 Reading" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{192D969F-7102-49B5-8951-6366C6AC26A1}" name="EX3 Writing" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{CAA54B9B-6675-4B34-890E-3516B1C22A81}" name="EX2 Speaking" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{ED7073C4-F484-4FCD-BF17-1A23043A6B1F}" name="CW1" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C225E16D-B279-4773-A4BC-A6F46E614215}" name="CW2" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{1EFCDFE9-EF74-46B7-888A-31C7DB1632F6}" name="CW3" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CD71F434-B884-436B-9994-1F08879D6E54}" name="status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1243,7 +1231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="topRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,7 +2516,7 @@
         <v>58</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2692,7 +2680,7 @@
         <v>53</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -8356,12 +8344,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="F2:L23">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:L57">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>

--- a/all_student_data.xlsx
+++ b/all_student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storr\Documents\0_coding\20-21 results analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54FD488-28E7-45A7-909F-7A1163BE429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C34D2-629E-460B-9FE1-2CC8DB26FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49026F05-F964-4820-BC77-407A59B9FFBE}"/>
   </bookViews>
@@ -1231,7 +1231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K48" sqref="K48"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
